--- a/drawings_tables/LaTex_Table_Formatter_V4_21-Jun-2023.xlsx
+++ b/drawings_tables/LaTex_Table_Formatter_V4_21-Jun-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rajesh\HEI\P-4 Research Phase\Article_Empirical_Study\drawings_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ABDB4B-8586-460F-944F-C51352330DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745D3976-13D1-4F00-AA52-099591C91F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LATEX" sheetId="27" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Sim_Avg" sheetId="24" r:id="rId4"/>
     <sheet name="PHM_SS_Avg" sheetId="25" r:id="rId5"/>
     <sheet name="PHM_MS_Avg" sheetId="26" r:id="rId6"/>
-    <sheet name="Colored_Table" sheetId="29" r:id="rId7"/>
-    <sheet name="HeatMap_Table" sheetId="30" r:id="rId8"/>
+    <sheet name="Training_times" sheetId="31" r:id="rId7"/>
+    <sheet name="Colored_Table" sheetId="29" r:id="rId8"/>
+    <sheet name="HeatMap_Table" sheetId="30" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="197">
   <si>
     <t>environment_info</t>
   </si>
@@ -336,18 +337,6 @@
     <t>LARGE TABLE</t>
   </si>
   <si>
-    <t>OVERALL</t>
-  </si>
-  <si>
-    <t>SIMULATED</t>
-  </si>
-  <si>
-    <t>PHM-SS</t>
-  </si>
-  <si>
-    <t>PHM-MS</t>
-  </si>
-  <si>
     <t>Advanced Algorithms (SB-3 implementations)</t>
   </si>
   <si>
@@ -666,6 +655,21 @@
   <si>
     <t>PHM Multi-state</t>
   </si>
+  <si>
+    <t>SIMULATED AVERAGES</t>
+  </si>
+  <si>
+    <t>PHM-MS  AVERAGES</t>
+  </si>
+  <si>
+    <t>PHM-SS  AVERAGES</t>
+  </si>
+  <si>
+    <t>Training times</t>
+  </si>
+  <si>
+    <t>Overall average (s)</t>
+  </si>
 </sst>
 </file>
 
@@ -675,7 +679,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,6 +885,14 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1559,7 +1571,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1594,24 +1606,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1619,15 +1613,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1768,12 +1753,6 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1782,9 +1761,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1803,6 +1779,44 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2353,6 +2367,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF0033CC"/>
       <color rgb="FFFFC1C1"/>
       <color rgb="FF003258"/>
@@ -2666,16 +2681,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59B2548-394C-41F7-89FB-6EF591314900}">
-  <dimension ref="B1:K37"/>
+  <dimension ref="B1:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="94" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2781,12 +2796,12 @@
         <v>PHM C06 MS - No noise &amp;1.000 &amp;0.643 &amp;0.779 &amp; 0.896 &amp; &amp; 0.499 &amp;0.731 &amp;0.575 &amp;0.523 &amp; &amp;0.520 &amp;0.239 &amp;0.209 &amp;0.256 &amp; &amp;0.509 &amp;0.260 &amp;0.330&amp;0.409\\</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
-      <c r="K22" t="s">
-        <v>91</v>
+    <row r="22" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="94" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -2849,12 +2864,12 @@
         <v>REINFORCE &amp; 0.944 &amp; 0.029 &amp; &amp;0.858 &amp; 0.041 &amp; &amp; 0.886 &amp; 0.032 &amp; &amp;0.916 &amp;0.030 \\</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>92</v>
-      </c>
-      <c r="K31" t="s">
-        <v>93</v>
+    <row r="31" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="94" t="s">
+        <v>194</v>
+      </c>
+      <c r="K31" s="94" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2915,6 +2930,113 @@
       <c r="K37" t="str">
         <f>PHM_MS_Avg!P9</f>
         <v>REINFORCE &amp; 0.859 &amp; 0.053 &amp; &amp;0.739 &amp; 0.069 &amp; &amp; 0.781 &amp; 0.055 &amp; &amp;0.822 &amp;0.052 \\</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="str">
+        <f>Training_times!F1</f>
+        <v>Environment &amp;REINFORCE &amp;A2C&amp;DQN&amp;PPO\\</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="str">
+        <f>Training_times!F2</f>
+        <v>Simulated  - No noise &amp;214.23 &amp;41.19&amp;4.03&amp;41.13\\</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="str">
+        <f>Training_times!F3</f>
+        <v>Simulated  - Low noise &amp;199.89 &amp;41.52&amp;3.55&amp;40.66\\</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="str">
+        <f>Training_times!F4</f>
+        <v>Simulated  - High noise &amp;134.16 &amp;17.88&amp;1.53&amp;20.90\\</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="str">
+        <f>Training_times!F5</f>
+        <v>PHM C01 SS - No noise &amp;330.54 &amp;18.85&amp;2.08&amp;32.65\\</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="str">
+        <f>Training_times!F6</f>
+        <v>PHM C01 SS - Low noise &amp;426.79 &amp;30.66&amp;3.69&amp;38.59\\</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" t="str">
+        <f>Training_times!F7</f>
+        <v>PHM C01 SS - High noise &amp;333.13 &amp;17.58&amp;1.80&amp;19.16\\</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="str">
+        <f>Training_times!F8</f>
+        <v>PHM C04 SS - No noise &amp;299.31 &amp;19.56&amp;1.86&amp;19.64\\</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" t="str">
+        <f>Training_times!F9</f>
+        <v>PHM C04 SS - Low noise &amp;264.90 &amp;18.27&amp;2.00&amp;19.69\\</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="str">
+        <f>Training_times!F10</f>
+        <v>PHM C04 SS - High noise &amp;256.44 &amp;17.65&amp;1.58&amp;19.11\\</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="str">
+        <f>Training_times!F11</f>
+        <v>PHM C06 SS - No noise &amp;339.65 &amp;17.64&amp;2.26&amp;19.50\\</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="str">
+        <f>Training_times!F12</f>
+        <v>PHM C06 SS - Low noise &amp;266.98 &amp;19.33&amp;1.84&amp;19.19\\</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="str">
+        <f>Training_times!F13</f>
+        <v>PHM C06 SS - High noise &amp;308.20 &amp;34.21&amp;4.18&amp;30.94\\</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="str">
+        <f>Training_times!F14</f>
+        <v>PHM C01 MS - No noise &amp;655.21 &amp;38.55&amp;4.96&amp;42.21\\</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="str">
+        <f>Training_times!F15</f>
+        <v>PHM C04 MS - No noise &amp;615.58 &amp;33.85&amp;7.36&amp;43.49\\</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="str">
+        <f>Training_times!F16</f>
+        <v>PHM C06 MS - No noise &amp;625.37 &amp;39.30&amp;5.85&amp;41.68\\</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="str">
+        <f>Training_times!F17</f>
+        <v>Overall average (s) &amp;351.36 &amp;27.07&amp;3.24&amp;29.90\\</v>
       </c>
     </row>
   </sheetData>
@@ -2927,9 +3049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AC580-EAD5-4BF8-B463-A4EAA2939E32}">
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W28" sqref="W28:W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6097,7 +6219,7 @@
   <dimension ref="B1:V33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6355,7 +6477,7 @@
         <v>6.2838912466666605E-2</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" ref="P7:P9" si="0">_xlfn.CONCAT(TEXT(B7, "0.000"), " &amp; ",  TEXT(C7, "0.000"), " &amp; ",TEXT( D7,  "0.000"), " &amp; &amp;", TEXT(F7,  "0.000"), " &amp; ",TEXT(G7, "0.000"), " &amp; &amp; ", TEXT(I7,  "0.000"), " &amp; ", TEXT(J7, "0.000"), " &amp; &amp;",  TEXT(L7,  "0.000"), " &amp;", TEXT(M7,  "0.000"), " \\")</f>
+        <f t="shared" ref="P7:P8" si="0">_xlfn.CONCAT(TEXT(B7, "0.000"), " &amp; ",  TEXT(C7, "0.000"), " &amp; ",TEXT( D7,  "0.000"), " &amp; &amp;", TEXT(F7,  "0.000"), " &amp; ",TEXT(G7, "0.000"), " &amp; &amp; ", TEXT(I7,  "0.000"), " &amp; ", TEXT(J7, "0.000"), " &amp; &amp;",  TEXT(L7,  "0.000"), " &amp;", TEXT(M7,  "0.000"), " \\")</f>
         <v>DQN &amp; 0.415 &amp; 0.196 &amp; &amp;0.462 &amp; 0.033 &amp; &amp; 0.343 &amp; 0.038 &amp; &amp;0.325 &amp;0.063 \\</v>
       </c>
       <c r="S7">
@@ -6467,7 +6589,7 @@
         <v>4.1750912986666597E-2</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(TEXT(B9, "0.000"), " &amp; ",  TEXT(C9, "0.000"), " &amp; ",TEXT( D9,  "0.000"), " &amp; &amp;", TEXT(F9,  "0.000"), " &amp; ",TEXT(G9, "0.000"), " &amp; &amp; ", TEXT(I9,  "0.000"), " &amp; ", TEXT(J9, "0.000"), " &amp; &amp;",  TEXT(L9,  "0.000"), " &amp;", TEXT(M9,  "0.000"), " \\")</f>
         <v>REINFORCE &amp; 0.866 &amp; 0.042 &amp; &amp;0.847 &amp; 0.054 &amp; &amp; 0.842 &amp; 0.043 &amp; &amp;0.852 &amp;0.042 \\</v>
       </c>
       <c r="S9">
@@ -6832,7 +6954,7 @@
   <dimension ref="B1:V33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9033,10 +9155,391 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FFB8C4-173F-40A3-B155-74CEDC458F1B}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="12" t="str">
+        <f>CONCATENATE(A1, " &amp;", TEXT(B1, "0.00")," &amp;",  TEXT(C1, "0.00"), "&amp;", TEXT(D1, "0.00"), "&amp;", TEXT(E1, "0.00"), "\\")</f>
+        <v>Environment &amp;REINFORCE &amp;A2C&amp;DQN&amp;PPO\\</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="93">
+        <v>214.23125028610201</v>
+      </c>
+      <c r="C2" s="93">
+        <v>41.192878961563103</v>
+      </c>
+      <c r="D2" s="93">
+        <v>4.0305840969085596</v>
+      </c>
+      <c r="E2" s="93">
+        <v>41.127108573913503</v>
+      </c>
+      <c r="F2" s="12" t="str">
+        <f>CONCATENATE(A2, " &amp;", TEXT(B2, "0.00")," &amp;",  TEXT(C2, "0.00"), "&amp;", TEXT(D2, "0.00"), "&amp;", TEXT(E2, "0.00"), "\\")</f>
+        <v>Simulated  - No noise &amp;214.23 &amp;41.19&amp;4.03&amp;41.13\\</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="93">
+        <v>199.893449068069</v>
+      </c>
+      <c r="C3" s="93">
+        <v>41.516161203384399</v>
+      </c>
+      <c r="D3" s="93">
+        <v>3.5455367565154998</v>
+      </c>
+      <c r="E3" s="93">
+        <v>40.6614153385162</v>
+      </c>
+      <c r="F3" s="12" t="str">
+        <f t="shared" ref="F3:F16" si="0">CONCATENATE(A3, " &amp;", TEXT(B3, "0.00")," &amp;",  TEXT(C3, "0.00"), "&amp;", TEXT(D3, "0.00"), "&amp;", TEXT(E3, "0.00"), "\\")</f>
+        <v>Simulated  - Low noise &amp;199.89 &amp;41.52&amp;3.55&amp;40.66\\</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="93">
+        <v>134.15730237960801</v>
+      </c>
+      <c r="C4" s="93">
+        <v>17.8784244060516</v>
+      </c>
+      <c r="D4" s="93">
+        <v>1.5289890766143699</v>
+      </c>
+      <c r="E4" s="93">
+        <v>20.900353193282999</v>
+      </c>
+      <c r="F4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulated  - High noise &amp;134.16 &amp;17.88&amp;1.53&amp;20.90\\</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="93">
+        <v>330.54439568519501</v>
+      </c>
+      <c r="C5" s="93">
+        <v>18.846081018447801</v>
+      </c>
+      <c r="D5" s="93">
+        <v>2.08377933502197</v>
+      </c>
+      <c r="E5" s="93">
+        <v>32.652981996536198</v>
+      </c>
+      <c r="F5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C01 SS - No noise &amp;330.54 &amp;18.85&amp;2.08&amp;32.65\\</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="93">
+        <v>426.78993558883599</v>
+      </c>
+      <c r="C6" s="93">
+        <v>30.655102491378699</v>
+      </c>
+      <c r="D6" s="93">
+        <v>3.6874377727508501</v>
+      </c>
+      <c r="E6" s="93">
+        <v>38.5864129066467</v>
+      </c>
+      <c r="F6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C01 SS - Low noise &amp;426.79 &amp;30.66&amp;3.69&amp;38.59\\</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="93">
+        <v>333.134527683258</v>
+      </c>
+      <c r="C7" s="93">
+        <v>17.582239151000898</v>
+      </c>
+      <c r="D7" s="93">
+        <v>1.80086994171142</v>
+      </c>
+      <c r="E7" s="93">
+        <v>19.155593395233101</v>
+      </c>
+      <c r="F7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C01 SS - High noise &amp;333.13 &amp;17.58&amp;1.80&amp;19.16\\</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="93">
+        <v>299.305101156234</v>
+      </c>
+      <c r="C8" s="93">
+        <v>19.561541557312001</v>
+      </c>
+      <c r="D8" s="93">
+        <v>1.8606305122375399</v>
+      </c>
+      <c r="E8" s="93">
+        <v>19.635247707366901</v>
+      </c>
+      <c r="F8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C04 SS - No noise &amp;299.31 &amp;19.56&amp;1.86&amp;19.64\\</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="93">
+        <v>264.90415620803799</v>
+      </c>
+      <c r="C9" s="93">
+        <v>18.268144130706698</v>
+      </c>
+      <c r="D9" s="93">
+        <v>1.99961829185485</v>
+      </c>
+      <c r="E9" s="93">
+        <v>19.6937849521636</v>
+      </c>
+      <c r="F9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C04 SS - Low noise &amp;264.90 &amp;18.27&amp;2.00&amp;19.69\\</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="93">
+        <v>256.44303488731299</v>
+      </c>
+      <c r="C10" s="93">
+        <v>17.6516013145446</v>
+      </c>
+      <c r="D10" s="93">
+        <v>1.57854628562927</v>
+      </c>
+      <c r="E10" s="93">
+        <v>19.106502056121801</v>
+      </c>
+      <c r="F10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C04 SS - High noise &amp;256.44 &amp;17.65&amp;1.58&amp;19.11\\</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="93">
+        <v>339.65067934989901</v>
+      </c>
+      <c r="C11" s="93">
+        <v>17.640863895416199</v>
+      </c>
+      <c r="D11" s="93">
+        <v>2.2645769119262602</v>
+      </c>
+      <c r="E11" s="93">
+        <v>19.495165824890101</v>
+      </c>
+      <c r="F11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C06 SS - No noise &amp;339.65 &amp;17.64&amp;2.26&amp;19.50\\</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="93">
+        <v>266.97978091239901</v>
+      </c>
+      <c r="C12" s="93">
+        <v>19.328150033950799</v>
+      </c>
+      <c r="D12" s="93">
+        <v>1.84245777130126</v>
+      </c>
+      <c r="E12" s="93">
+        <v>19.189173936843801</v>
+      </c>
+      <c r="F12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C06 SS - Low noise &amp;266.98 &amp;19.33&amp;1.84&amp;19.19\\</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="93">
+        <v>308.20302629470802</v>
+      </c>
+      <c r="C13" s="93">
+        <v>34.212615728378204</v>
+      </c>
+      <c r="D13" s="93">
+        <v>4.1830084323883003</v>
+      </c>
+      <c r="E13" s="93">
+        <v>30.942311763763399</v>
+      </c>
+      <c r="F13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C06 SS - High noise &amp;308.20 &amp;34.21&amp;4.18&amp;30.94\\</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="93">
+        <v>655.20664548873901</v>
+      </c>
+      <c r="C14" s="93">
+        <v>38.551126956939697</v>
+      </c>
+      <c r="D14" s="93">
+        <v>4.9570662975311199</v>
+      </c>
+      <c r="E14" s="93">
+        <v>42.206415891647303</v>
+      </c>
+      <c r="F14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C01 MS - No noise &amp;655.21 &amp;38.55&amp;4.96&amp;42.21\\</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="93">
+        <v>615.58175253868103</v>
+      </c>
+      <c r="C15" s="93">
+        <v>33.854306697845402</v>
+      </c>
+      <c r="D15" s="93">
+        <v>7.3636748790740896</v>
+      </c>
+      <c r="E15" s="93">
+        <v>43.493301391601499</v>
+      </c>
+      <c r="F15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C04 MS - No noise &amp;615.58 &amp;33.85&amp;7.36&amp;43.49\\</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="93">
+        <v>625.372385501861</v>
+      </c>
+      <c r="C16" s="93">
+        <v>39.296446323394697</v>
+      </c>
+      <c r="D16" s="93">
+        <v>5.8528637886047301</v>
+      </c>
+      <c r="E16" s="93">
+        <v>41.675241708755401</v>
+      </c>
+      <c r="F16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C06 MS - No noise &amp;625.37 &amp;39.30&amp;5.85&amp;41.68\\</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="93">
+        <f>AVERAGE(B2:B16)</f>
+        <v>351.3598282019293</v>
+      </c>
+      <c r="C17" s="93">
+        <f>AVERAGE(C2:C16)</f>
+        <v>27.069045591354321</v>
+      </c>
+      <c r="D17" s="93">
+        <f>AVERAGE(D2:D16)</f>
+        <v>3.2386426766713394</v>
+      </c>
+      <c r="E17" s="93">
+        <f>AVERAGE(E2:E16)</f>
+        <v>29.90140070915216</v>
+      </c>
+      <c r="F17" s="12" t="str">
+        <f>CONCATENATE(A17, " &amp;", TEXT(B17, "0.00")," &amp;",  TEXT(C17, "0.00"), "&amp;", TEXT(D17, "0.00"), "&amp;", TEXT(E17, "0.00"), "\\")</f>
+        <v>Overall average (s) &amp;351.36 &amp;27.07&amp;3.24&amp;29.90\\</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A151067C-8E6D-415F-B6D0-9695447A42CD}">
   <dimension ref="A1:AX52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
@@ -9087,188 +9590,188 @@
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="22"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="84"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
-      <c r="W2" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="25"/>
+      <c r="W2" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="87"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="29" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="29" t="s">
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="29" t="s">
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="31"/>
+      <c r="AL3" s="89"/>
+      <c r="AM3" s="89"/>
+      <c r="AN3" s="89"/>
+      <c r="AO3" s="90"/>
     </row>
     <row r="4" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="G4" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="H4" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="I4" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="J4" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="K4" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="L4" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="M4" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="N4" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="O4" s="25"/>
+      <c r="P4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="V4" s="26"/>
+      <c r="W4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI4" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="N4" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="28" t="s">
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28" t="s">
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="V4" s="35"/>
-      <c r="W4" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB4" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI4" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="37" t="s">
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="28" t="s">
         <v>36</v>
       </c>
       <c r="AP4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="AQ4" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AS4" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9279,123 +9782,123 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="H5" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="I5" s="21">
+        <v>40</v>
+      </c>
+      <c r="J5" s="21">
+        <v>5</v>
+      </c>
+      <c r="K5" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="L5" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="27">
-        <v>40</v>
-      </c>
-      <c r="J5" s="27">
-        <v>5</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="M5" s="27">
+      <c r="M5" s="21">
         <v>1</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="21">
         <v>2</v>
       </c>
-      <c r="O5" s="27"/>
-      <c r="P5" s="38">
+      <c r="O5" s="21"/>
+      <c r="P5" s="29">
         <v>1</v>
       </c>
-      <c r="Q5" s="38">
+      <c r="Q5" s="29">
         <v>0</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5" s="29">
         <v>0.69</v>
       </c>
-      <c r="S5" s="38">
+      <c r="S5" s="29">
         <v>6.5192024052026495E-2</v>
       </c>
-      <c r="T5" s="38">
+      <c r="T5" s="29">
         <v>0.81521093285799096</v>
       </c>
-      <c r="U5" s="39">
+      <c r="U5" s="30">
         <v>4.3985158700705199E-2</v>
       </c>
-      <c r="V5" s="39"/>
-      <c r="W5" s="40">
+      <c r="V5" s="30"/>
+      <c r="W5" s="31">
         <v>0.8</v>
       </c>
-      <c r="X5" s="39">
+      <c r="X5" s="30">
         <v>0.2</v>
       </c>
-      <c r="Y5" s="39">
+      <c r="Y5" s="30">
         <v>0.16</v>
       </c>
-      <c r="Z5" s="39">
+      <c r="Z5" s="30">
         <v>7.4161984870956599E-2</v>
       </c>
-      <c r="AA5" s="41">
+      <c r="AA5" s="32">
         <v>0.25904761904761903</v>
       </c>
-      <c r="AB5" s="39">
+      <c r="AB5" s="30">
         <v>0.113072930130711</v>
       </c>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="40">
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="31">
         <v>0.50526315789473597</v>
       </c>
-      <c r="AE5" s="39">
+      <c r="AE5" s="30">
         <v>1.4855535319035801E-2</v>
       </c>
-      <c r="AF5" s="39">
+      <c r="AF5" s="30">
         <v>0.98</v>
       </c>
-      <c r="AG5" s="39">
+      <c r="AG5" s="30">
         <v>2.73861278752583E-2</v>
       </c>
-      <c r="AH5" s="41">
+      <c r="AH5" s="32">
         <v>0.66670563023572904</v>
       </c>
-      <c r="AI5" s="39">
+      <c r="AI5" s="30">
         <v>1.8020598038054701E-2</v>
       </c>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="40">
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="31">
         <v>0.55071428571428505</v>
       </c>
-      <c r="AL5" s="39">
+      <c r="AL5" s="30">
         <v>8.3467578943526799E-2</v>
       </c>
-      <c r="AM5" s="39">
+      <c r="AM5" s="30">
         <v>0.16999999999999901</v>
       </c>
-      <c r="AN5" s="39">
+      <c r="AN5" s="30">
         <v>4.4721359549995801E-2</v>
       </c>
-      <c r="AO5" s="41">
+      <c r="AO5" s="32">
         <v>0.25802686202686198</v>
       </c>
       <c r="AP5" s="1">
         <v>5.5899165222349202E-2</v>
       </c>
       <c r="AQ5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="43" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="34" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9406,246 +9909,246 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="27" t="s">
+      <c r="H6" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="21">
+        <v>40</v>
+      </c>
+      <c r="J6" s="21">
+        <v>5</v>
+      </c>
+      <c r="K6" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="27">
-        <v>40</v>
-      </c>
-      <c r="J6" s="27">
-        <v>5</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="M6" s="27">
+      <c r="L6" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" s="21">
         <v>1</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="21">
         <v>2</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="38">
+      <c r="O6" s="21"/>
+      <c r="P6" s="29">
         <v>0.926640316205533</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q6" s="29">
         <v>5.8523623017485898E-2</v>
       </c>
-      <c r="R6" s="38">
+      <c r="R6" s="29">
         <v>0.97</v>
       </c>
-      <c r="S6" s="38">
+      <c r="S6" s="29">
         <v>2.73861278752583E-2</v>
       </c>
-      <c r="T6" s="38">
+      <c r="T6" s="29">
         <v>0.94699889258028702</v>
       </c>
-      <c r="U6" s="39">
+      <c r="U6" s="30">
         <v>3.4972145307925299E-2</v>
       </c>
-      <c r="V6" s="39"/>
-      <c r="W6" s="40">
+      <c r="V6" s="30"/>
+      <c r="W6" s="31">
         <v>0.55390712074303405</v>
       </c>
-      <c r="X6" s="39">
+      <c r="X6" s="30">
         <v>6.7022105587826994E-2</v>
       </c>
-      <c r="Y6" s="39">
+      <c r="Y6" s="30">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Z6" s="39">
+      <c r="Z6" s="30">
         <v>0.102469507659596</v>
       </c>
-      <c r="AA6" s="41">
+      <c r="AA6" s="32">
         <v>0.55486255486255398</v>
       </c>
-      <c r="AB6" s="39">
+      <c r="AB6" s="30">
         <v>7.8540432258385695E-2</v>
       </c>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="40">
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="31">
         <v>0.2</v>
       </c>
-      <c r="AE6" s="39">
+      <c r="AE6" s="30">
         <v>0.44721359549995698</v>
       </c>
-      <c r="AF6" s="44">
+      <c r="AF6" s="35">
         <v>0.01</v>
       </c>
-      <c r="AG6" s="39">
+      <c r="AG6" s="30">
         <v>2.2360679774997901E-2</v>
       </c>
-      <c r="AH6" s="41">
+      <c r="AH6" s="32">
         <v>1.9047619047619001E-2</v>
       </c>
-      <c r="AI6" s="39">
+      <c r="AI6" s="30">
         <v>4.25917709999959E-2</v>
       </c>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="45">
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="36">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="AL6" s="39">
+      <c r="AL6" s="30">
         <v>0.14907119849998501</v>
       </c>
-      <c r="AM6" s="44">
+      <c r="AM6" s="35">
         <v>0.01</v>
       </c>
-      <c r="AN6" s="39">
+      <c r="AN6" s="30">
         <v>2.2360679774997901E-2</v>
       </c>
-      <c r="AO6" s="46">
+      <c r="AO6" s="37">
         <v>1.7391304347826E-2</v>
       </c>
       <c r="AP6" s="1">
         <v>3.88881387391267E-2</v>
       </c>
       <c r="AQ6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" s="48" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+        <v>119</v>
+      </c>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
         <v>2</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="39">
         <v>2</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="50" t="s">
+      <c r="H7" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="41">
+        <v>40</v>
+      </c>
+      <c r="J7" s="41">
+        <v>5</v>
+      </c>
+      <c r="K7" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" s="50">
-        <v>40</v>
-      </c>
-      <c r="J7" s="50">
-        <v>5</v>
-      </c>
-      <c r="K7" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="L7" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="M7" s="50">
+      <c r="L7" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="41">
         <v>1</v>
       </c>
-      <c r="N7" s="50">
+      <c r="N7" s="41">
         <v>2</v>
       </c>
-      <c r="O7" s="50"/>
-      <c r="P7" s="51">
+      <c r="O7" s="41"/>
+      <c r="P7" s="42">
         <v>0.925541125541125</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="42">
         <v>2.4564954041750801E-2</v>
       </c>
-      <c r="R7" s="51">
+      <c r="R7" s="42">
         <v>0.99</v>
       </c>
-      <c r="S7" s="51">
+      <c r="S7" s="42">
         <v>2.2360679774997901E-2</v>
       </c>
-      <c r="T7" s="51">
+      <c r="T7" s="42">
         <v>0.95656213704994197</v>
       </c>
-      <c r="U7" s="52">
+      <c r="U7" s="43">
         <v>2.0277029354513601E-2</v>
       </c>
-      <c r="V7" s="52"/>
-      <c r="W7" s="53">
+      <c r="V7" s="43"/>
+      <c r="W7" s="44">
         <v>0.502564102564102</v>
       </c>
-      <c r="X7" s="52">
+      <c r="X7" s="43">
         <v>1.0726410596590699E-2</v>
       </c>
-      <c r="Y7" s="52">
+      <c r="Y7" s="43">
         <v>0.99</v>
       </c>
-      <c r="Z7" s="52">
+      <c r="Z7" s="43">
         <v>2.2360679774997901E-2</v>
       </c>
-      <c r="AA7" s="54">
+      <c r="AA7" s="45">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AB7" s="52">
+      <c r="AB7" s="43">
         <v>1.38389251004699E-2</v>
       </c>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="53">
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="44">
         <v>0.43333333333333302</v>
       </c>
-      <c r="AE7" s="52">
+      <c r="AE7" s="43">
         <v>0.43461349368017599</v>
       </c>
-      <c r="AF7" s="55">
+      <c r="AF7" s="46">
         <v>0.04</v>
       </c>
-      <c r="AG7" s="52">
+      <c r="AG7" s="43">
         <v>4.18330013267037E-2</v>
       </c>
-      <c r="AH7" s="54">
+      <c r="AH7" s="45">
         <v>7.2012045925089294E-2</v>
       </c>
-      <c r="AI7" s="52">
+      <c r="AI7" s="43">
         <v>7.3572804919316795E-2</v>
       </c>
-      <c r="AJ7" s="52"/>
-      <c r="AK7" s="53">
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="44">
         <v>0.60636363636363599</v>
       </c>
-      <c r="AL7" s="52">
+      <c r="AL7" s="43">
         <v>4.69501425571218E-2</v>
       </c>
-      <c r="AM7" s="52">
+      <c r="AM7" s="43">
         <v>0.31999999999999901</v>
       </c>
-      <c r="AN7" s="52">
+      <c r="AN7" s="43">
         <v>2.7386127875258199E-2</v>
       </c>
-      <c r="AO7" s="54">
+      <c r="AO7" s="45">
         <v>0.41800055617352599</v>
       </c>
-      <c r="AP7" s="56">
+      <c r="AP7" s="47">
         <v>2.64895479650098E-2</v>
       </c>
-      <c r="AQ7" s="48" t="s">
-        <v>126</v>
+      <c r="AQ7" s="39" t="s">
+        <v>122</v>
       </c>
       <c r="AR7"/>
       <c r="AS7"/>
@@ -9663,117 +10166,117 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="27">
+        <v>109</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="21">
         <v>40</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="21">
         <v>5</v>
       </c>
-      <c r="K8" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27">
+      <c r="K8" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21">
         <v>100</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="21">
         <v>70</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="38">
+      <c r="O8" s="21"/>
+      <c r="P8" s="29">
         <v>0.823411371237458</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q8" s="29">
         <v>3.5662274950010203E-2</v>
       </c>
-      <c r="R8" s="38">
+      <c r="R8" s="29">
         <v>0.97</v>
       </c>
-      <c r="S8" s="38">
+      <c r="S8" s="29">
         <v>2.73861278752583E-2</v>
       </c>
-      <c r="T8" s="38">
+      <c r="T8" s="29">
         <v>0.89019211324570202</v>
       </c>
-      <c r="U8" s="39">
+      <c r="U8" s="30">
         <v>2.3207405545714301E-2</v>
       </c>
-      <c r="V8" s="39"/>
-      <c r="W8" s="40">
+      <c r="V8" s="30"/>
+      <c r="W8" s="31">
         <v>0.37835139318885402</v>
       </c>
-      <c r="X8" s="39">
+      <c r="X8" s="30">
         <v>9.1492008746685796E-2</v>
       </c>
-      <c r="Y8" s="39">
+      <c r="Y8" s="30">
         <v>0.35</v>
       </c>
-      <c r="Z8" s="39">
+      <c r="Z8" s="30">
         <v>0.1</v>
       </c>
-      <c r="AA8" s="41">
+      <c r="AA8" s="32">
         <v>0.36298452298452299</v>
       </c>
-      <c r="AB8" s="39">
+      <c r="AB8" s="30">
         <v>9.55808818665837E-2</v>
       </c>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="40">
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="31">
         <v>0.2</v>
       </c>
-      <c r="AE8" s="39">
+      <c r="AE8" s="30">
         <v>0.44721359549995798</v>
       </c>
-      <c r="AF8" s="44">
+      <c r="AF8" s="35">
         <v>0.01</v>
       </c>
-      <c r="AG8" s="39">
+      <c r="AG8" s="30">
         <v>2.2360679774997901E-2</v>
       </c>
-      <c r="AH8" s="41">
+      <c r="AH8" s="32">
         <v>1.9047619047619001E-2</v>
       </c>
-      <c r="AI8" s="39">
+      <c r="AI8" s="30">
         <v>4.25917709999959E-2</v>
       </c>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="40">
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="31">
         <v>0.4</v>
       </c>
-      <c r="AL8" s="39">
+      <c r="AL8" s="30">
         <v>0.28948405898799201</v>
       </c>
-      <c r="AM8" s="39">
+      <c r="AM8" s="30">
         <v>0.11</v>
       </c>
-      <c r="AN8" s="39">
+      <c r="AN8" s="30">
         <v>8.2158383625774906E-2</v>
       </c>
-      <c r="AO8" s="41">
+      <c r="AO8" s="32">
         <v>0.17037037037037001</v>
       </c>
       <c r="AP8" s="1">
         <v>0.123984212898299</v>
       </c>
       <c r="AQ8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9784,117 +10287,117 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" s="27">
+      <c r="G9" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="21">
         <v>40</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="21">
         <v>5</v>
       </c>
-      <c r="K9" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27">
+      <c r="K9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21">
         <v>100</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="21">
         <v>70</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="38">
+      <c r="O9" s="21"/>
+      <c r="P9" s="29">
         <v>0.94533625730994097</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="Q9" s="29">
         <v>3.7524586402231302E-2</v>
       </c>
-      <c r="R9" s="38">
+      <c r="R9" s="29">
         <v>0.86</v>
       </c>
-      <c r="S9" s="38">
+      <c r="S9" s="29">
         <v>7.4161984870956599E-2</v>
       </c>
-      <c r="T9" s="38">
+      <c r="T9" s="29">
         <v>0.89944669365721996</v>
       </c>
-      <c r="U9" s="39">
+      <c r="U9" s="30">
         <v>5.0024771628693301E-2</v>
       </c>
-      <c r="V9" s="39"/>
-      <c r="W9" s="40">
+      <c r="V9" s="30"/>
+      <c r="W9" s="31">
         <v>0.46590476190476099</v>
       </c>
-      <c r="X9" s="39">
+      <c r="X9" s="30">
         <v>0.10249148019621</v>
       </c>
-      <c r="Y9" s="39">
+      <c r="Y9" s="30">
         <v>0.51</v>
       </c>
-      <c r="Z9" s="39">
+      <c r="Z9" s="30">
         <v>0.178185296812054</v>
       </c>
-      <c r="AA9" s="41">
+      <c r="AA9" s="32">
         <v>0.48388494062779203</v>
       </c>
-      <c r="AB9" s="39">
+      <c r="AB9" s="30">
         <v>0.14113292839310199</v>
       </c>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="40">
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="31">
         <v>0.82113306982872203</v>
       </c>
-      <c r="AE9" s="39">
+      <c r="AE9" s="30">
         <v>3.12676008574699E-2</v>
       </c>
-      <c r="AF9" s="39">
+      <c r="AF9" s="30">
         <v>0.96</v>
       </c>
-      <c r="AG9" s="39">
+      <c r="AG9" s="30">
         <v>4.18330013267037E-2</v>
       </c>
-      <c r="AH9" s="41">
+      <c r="AH9" s="32">
         <v>0.88473438705996799</v>
       </c>
-      <c r="AI9" s="39">
+      <c r="AI9" s="30">
         <v>2.8597474931990299E-2</v>
       </c>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="40">
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="31">
         <v>0.32</v>
       </c>
-      <c r="AL9" s="39">
+      <c r="AL9" s="30">
         <v>0.18907670401189</v>
       </c>
-      <c r="AM9" s="39">
+      <c r="AM9" s="30">
         <v>0.11</v>
       </c>
-      <c r="AN9" s="39">
+      <c r="AN9" s="30">
         <v>4.18330013267037E-2</v>
       </c>
-      <c r="AO9" s="41">
+      <c r="AO9" s="32">
         <v>0.15940476190476099</v>
       </c>
       <c r="AP9" s="1">
         <v>6.3559946350239704E-2</v>
       </c>
       <c r="AQ9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9905,117 +10408,117 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="27">
+      <c r="G10" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="21">
         <v>40</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="21">
         <v>5</v>
       </c>
-      <c r="K10" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27">
+      <c r="K10" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21">
         <v>100</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="21">
         <v>70</v>
       </c>
-      <c r="O10" s="27"/>
-      <c r="P10" s="38">
+      <c r="O10" s="21"/>
+      <c r="P10" s="29">
         <v>0.791521739130434</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="29">
         <v>3.0098207943381999E-2</v>
       </c>
-      <c r="R10" s="38">
+      <c r="R10" s="29">
         <v>0.95</v>
       </c>
-      <c r="S10" s="38">
+      <c r="S10" s="29">
         <v>4.9999999999999899E-2</v>
       </c>
-      <c r="T10" s="38">
+      <c r="T10" s="29">
         <v>0.863401456424712</v>
       </c>
-      <c r="U10" s="39">
+      <c r="U10" s="30">
         <v>3.6973081759306699E-2</v>
       </c>
-      <c r="V10" s="39"/>
-      <c r="W10" s="40">
+      <c r="V10" s="30"/>
+      <c r="W10" s="31">
         <v>0.52914270971546495</v>
       </c>
-      <c r="X10" s="39">
+      <c r="X10" s="30">
         <v>5.8101158454402599E-2</v>
       </c>
-      <c r="Y10" s="39">
+      <c r="Y10" s="30">
         <v>0.5</v>
       </c>
-      <c r="Z10" s="39">
+      <c r="Z10" s="30">
         <v>6.1237243569579401E-2</v>
       </c>
-      <c r="AA10" s="41">
+      <c r="AA10" s="32">
         <v>0.51224067809433604</v>
       </c>
-      <c r="AB10" s="39">
+      <c r="AB10" s="30">
         <v>4.7361305162288397E-2</v>
       </c>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="40">
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="31">
         <v>0.6</v>
       </c>
-      <c r="AE10" s="39">
+      <c r="AE10" s="30">
         <v>0.54772255750516596</v>
       </c>
-      <c r="AF10" s="44">
+      <c r="AF10" s="35">
         <v>0.03</v>
       </c>
-      <c r="AG10" s="39">
+      <c r="AG10" s="30">
         <v>2.73861278752583E-2</v>
       </c>
-      <c r="AH10" s="41">
+      <c r="AH10" s="32">
         <v>5.7142857142857099E-2</v>
       </c>
-      <c r="AI10" s="39">
+      <c r="AI10" s="30">
         <v>5.2164053095730002E-2</v>
       </c>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="40">
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="31">
         <v>0.48428571428571399</v>
       </c>
-      <c r="AL10" s="39">
+      <c r="AL10" s="30">
         <v>0.170563292459702</v>
       </c>
-      <c r="AM10" s="39">
+      <c r="AM10" s="30">
         <v>0.19</v>
       </c>
-      <c r="AN10" s="39">
+      <c r="AN10" s="30">
         <v>0.102469507659595</v>
       </c>
-      <c r="AO10" s="41">
+      <c r="AO10" s="32">
         <v>0.270306878306878</v>
       </c>
       <c r="AP10" s="1">
         <v>0.13026995720729601</v>
       </c>
       <c r="AQ10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10026,117 +10529,117 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" s="27">
+        <v>109</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="21">
         <v>40</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="21">
         <v>5</v>
       </c>
-      <c r="K11" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27">
+      <c r="K11" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21">
         <v>100</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="21">
         <v>70</v>
       </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="38">
+      <c r="O11" s="21"/>
+      <c r="P11" s="29">
         <v>0.87423301336344805</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="Q11" s="29">
         <v>1.7321719165334901E-2</v>
       </c>
-      <c r="R11" s="38">
+      <c r="R11" s="29">
         <v>0.97</v>
       </c>
-      <c r="S11" s="38">
+      <c r="S11" s="29">
         <v>2.73861278752583E-2</v>
       </c>
-      <c r="T11" s="38">
+      <c r="T11" s="29">
         <v>0.91936363881911198</v>
       </c>
-      <c r="U11" s="39">
+      <c r="U11" s="30">
         <v>1.3401713629039899E-2</v>
       </c>
-      <c r="V11" s="39"/>
-      <c r="W11" s="40">
+      <c r="V11" s="30"/>
+      <c r="W11" s="31">
         <v>0.52786464080581696</v>
       </c>
-      <c r="X11" s="39">
+      <c r="X11" s="30">
         <v>3.7433487764853599E-2</v>
       </c>
-      <c r="Y11" s="39">
+      <c r="Y11" s="30">
         <v>0.8</v>
       </c>
-      <c r="Z11" s="39">
+      <c r="Z11" s="30">
         <v>7.0710678118654696E-2</v>
       </c>
-      <c r="AA11" s="41">
+      <c r="AA11" s="32">
         <v>0.63484984462583804</v>
       </c>
-      <c r="AB11" s="39">
+      <c r="AB11" s="30">
         <v>3.9763923343019703E-2</v>
       </c>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="40">
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="31">
         <v>0.1</v>
       </c>
-      <c r="AE11" s="39">
+      <c r="AE11" s="30">
         <v>0.22360679774997799</v>
       </c>
-      <c r="AF11" s="44">
+      <c r="AF11" s="35">
         <v>0.01</v>
       </c>
-      <c r="AG11" s="39">
+      <c r="AG11" s="30">
         <v>2.23606797749978E-2</v>
       </c>
-      <c r="AH11" s="41">
+      <c r="AH11" s="32">
         <v>1.8181818181818101E-2</v>
       </c>
-      <c r="AI11" s="39">
+      <c r="AI11" s="30">
         <v>4.0655781409087002E-2</v>
       </c>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="40">
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="31">
         <v>0.49404841358122698</v>
       </c>
-      <c r="AL11" s="39">
+      <c r="AL11" s="30">
         <v>6.4468283624037198E-2</v>
       </c>
-      <c r="AM11" s="39">
+      <c r="AM11" s="30">
         <v>0.72</v>
       </c>
-      <c r="AN11" s="39">
+      <c r="AN11" s="30">
         <v>8.3666002653407498E-2</v>
       </c>
-      <c r="AO11" s="41">
+      <c r="AO11" s="32">
         <v>0.58576950780312098</v>
       </c>
       <c r="AP11" s="1">
         <v>7.1901709316713705E-2</v>
       </c>
       <c r="AQ11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10147,117 +10650,117 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="27">
+      <c r="G12" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="21">
         <v>40</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="21">
         <v>5</v>
       </c>
-      <c r="K12" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27">
+      <c r="K12" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21">
         <v>100</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="21">
         <v>70</v>
       </c>
-      <c r="O12" s="27"/>
-      <c r="P12" s="38">
+      <c r="O12" s="21"/>
+      <c r="P12" s="29">
         <v>0.852727272727272</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="Q12" s="29">
         <v>8.6816991900460494E-2</v>
       </c>
-      <c r="R12" s="38">
+      <c r="R12" s="29">
         <v>0.98</v>
       </c>
-      <c r="S12" s="38">
+      <c r="S12" s="29">
         <v>2.73861278752583E-2</v>
       </c>
-      <c r="T12" s="38">
+      <c r="T12" s="29">
         <v>0.90915750915750904</v>
       </c>
-      <c r="U12" s="39">
+      <c r="U12" s="30">
         <v>3.7091115193537597E-2</v>
       </c>
-      <c r="V12" s="39"/>
-      <c r="W12" s="45">
+      <c r="V12" s="30"/>
+      <c r="W12" s="36">
         <v>0</v>
       </c>
-      <c r="X12" s="44">
+      <c r="X12" s="35">
         <v>0</v>
       </c>
-      <c r="Y12" s="44">
+      <c r="Y12" s="35">
         <v>0</v>
       </c>
-      <c r="Z12" s="44">
+      <c r="Z12" s="35">
         <v>0</v>
       </c>
-      <c r="AA12" s="46">
+      <c r="AA12" s="37">
         <v>0</v>
       </c>
-      <c r="AB12" s="39">
+      <c r="AB12" s="30">
         <v>0</v>
       </c>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="40">
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="31">
         <v>0.51309041835357605</v>
       </c>
-      <c r="AE12" s="39">
+      <c r="AE12" s="30">
         <v>1.31587597902427E-2</v>
       </c>
-      <c r="AF12" s="39">
+      <c r="AF12" s="30">
         <v>1</v>
       </c>
-      <c r="AG12" s="39">
+      <c r="AG12" s="30">
         <v>0</v>
       </c>
-      <c r="AH12" s="41">
+      <c r="AH12" s="32">
         <v>0.67812195597116598</v>
       </c>
-      <c r="AI12" s="39">
+      <c r="AI12" s="30">
         <v>1.1494583068558301E-2</v>
       </c>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="40">
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="31">
         <v>0.53683473389355696</v>
       </c>
-      <c r="AL12" s="39">
+      <c r="AL12" s="30">
         <v>3.9139331429008897E-2</v>
       </c>
-      <c r="AM12" s="39">
+      <c r="AM12" s="30">
         <v>0.32</v>
       </c>
-      <c r="AN12" s="39">
+      <c r="AN12" s="30">
         <v>0.115108644332213</v>
       </c>
-      <c r="AO12" s="41">
+      <c r="AO12" s="32">
         <v>0.39320065864183501</v>
       </c>
       <c r="AP12" s="1">
         <v>9.9699743068603797E-2</v>
       </c>
       <c r="AQ12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10268,117 +10771,117 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I13" s="27">
+      <c r="G13" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="21">
         <v>40</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="21">
         <v>5</v>
       </c>
-      <c r="K13" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27">
+      <c r="K13" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21">
         <v>100</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="21">
         <v>70</v>
       </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="38">
+      <c r="O13" s="21"/>
+      <c r="P13" s="29">
         <v>0.73485125858123501</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="Q13" s="29">
         <v>3.8673581294866602E-2</v>
       </c>
-      <c r="R13" s="38">
+      <c r="R13" s="29">
         <v>0.77</v>
       </c>
-      <c r="S13" s="38">
+      <c r="S13" s="29">
         <v>5.7008771254956903E-2</v>
       </c>
-      <c r="T13" s="38">
+      <c r="T13" s="29">
         <v>0.75082289803220004</v>
       </c>
-      <c r="U13" s="39">
+      <c r="U13" s="30">
         <v>3.3751071974078797E-2</v>
       </c>
-      <c r="V13" s="39"/>
-      <c r="W13" s="40">
+      <c r="V13" s="30"/>
+      <c r="W13" s="31">
         <v>0.34666666666666601</v>
       </c>
-      <c r="X13" s="39">
+      <c r="X13" s="30">
         <v>0.40933550488023301</v>
       </c>
-      <c r="Y13" s="39">
+      <c r="Y13" s="30">
         <v>0.04</v>
       </c>
-      <c r="Z13" s="39">
+      <c r="Z13" s="30">
         <v>4.18330013267037E-2</v>
       </c>
-      <c r="AA13" s="41">
+      <c r="AA13" s="32">
         <v>6.8438923395445106E-2</v>
       </c>
-      <c r="AB13" s="39">
+      <c r="AB13" s="30">
         <v>6.8578969589645905E-2</v>
       </c>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="40">
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="31">
         <v>0.29210033444816003</v>
       </c>
-      <c r="AE13" s="39">
+      <c r="AE13" s="30">
         <v>3.5836634633154001E-2</v>
       </c>
-      <c r="AF13" s="39">
+      <c r="AF13" s="30">
         <v>0.36</v>
       </c>
-      <c r="AG13" s="39">
+      <c r="AG13" s="30">
         <v>5.4772255750516599E-2</v>
       </c>
-      <c r="AH13" s="41">
+      <c r="AH13" s="32">
         <v>0.322367047624883</v>
       </c>
-      <c r="AI13" s="39">
+      <c r="AI13" s="30">
         <v>4.3244025182130497E-2</v>
       </c>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="40">
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="31">
         <v>0.52141265597147901</v>
       </c>
-      <c r="AL13" s="39">
+      <c r="AL13" s="30">
         <v>2.7912919952247098E-2</v>
       </c>
-      <c r="AM13" s="39">
+      <c r="AM13" s="30">
         <v>0.88</v>
       </c>
-      <c r="AN13" s="39">
+      <c r="AN13" s="30">
         <v>2.73861278752583E-2</v>
       </c>
-      <c r="AO13" s="41">
+      <c r="AO13" s="32">
         <v>0.65464221313277904</v>
       </c>
       <c r="AP13" s="1">
         <v>2.7681742427140599E-2</v>
       </c>
       <c r="AQ13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10389,117 +10892,117 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" s="27">
+        <v>109</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="21">
         <v>40</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="21">
         <v>5</v>
       </c>
-      <c r="K14" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27">
+      <c r="K14" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21">
         <v>100</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="21">
         <v>70</v>
       </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="38">
+      <c r="O14" s="21"/>
+      <c r="P14" s="29">
         <v>1</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14" s="29">
         <v>0</v>
       </c>
-      <c r="R14" s="38">
+      <c r="R14" s="29">
         <v>0.69</v>
       </c>
-      <c r="S14" s="38">
+      <c r="S14" s="29">
         <v>5.4772255750516502E-2</v>
       </c>
-      <c r="T14" s="38">
+      <c r="T14" s="29">
         <v>0.81558441558441497</v>
       </c>
-      <c r="U14" s="39">
+      <c r="U14" s="30">
         <v>3.7937493160530897E-2</v>
       </c>
-      <c r="V14" s="39"/>
-      <c r="W14" s="40">
+      <c r="V14" s="30"/>
+      <c r="W14" s="31">
         <v>0.52691511387163503</v>
       </c>
-      <c r="X14" s="39">
+      <c r="X14" s="30">
         <v>0.10374716204031</v>
       </c>
-      <c r="Y14" s="39">
+      <c r="Y14" s="30">
         <v>0.54</v>
       </c>
-      <c r="Z14" s="39">
+      <c r="Z14" s="30">
         <v>9.61769203083567E-2</v>
       </c>
-      <c r="AA14" s="41">
+      <c r="AA14" s="32">
         <v>0.52965453907030702</v>
       </c>
-      <c r="AB14" s="39">
+      <c r="AB14" s="30">
         <v>8.3142119507436898E-2</v>
       </c>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="40">
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="31">
         <v>0.50526680526680501</v>
       </c>
-      <c r="AE14" s="39">
+      <c r="AE14" s="30">
         <v>7.2160309012054002E-3</v>
       </c>
-      <c r="AF14" s="39">
+      <c r="AF14" s="30">
         <v>0.99</v>
       </c>
-      <c r="AG14" s="39">
+      <c r="AG14" s="30">
         <v>2.2360679774997901E-2</v>
       </c>
-      <c r="AH14" s="41">
+      <c r="AH14" s="32">
         <v>0.66892655367231602</v>
       </c>
-      <c r="AI14" s="39">
+      <c r="AI14" s="30">
         <v>5.0532609661012098E-3</v>
       </c>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="40">
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="31">
         <v>0.53731203007518702</v>
       </c>
-      <c r="AL14" s="39">
+      <c r="AL14" s="30">
         <v>4.7361800617429499E-2</v>
       </c>
-      <c r="AM14" s="39">
+      <c r="AM14" s="30">
         <v>0.47</v>
       </c>
-      <c r="AN14" s="39">
+      <c r="AN14" s="30">
         <v>5.7008771254956798E-2</v>
       </c>
-      <c r="AO14" s="41">
+      <c r="AO14" s="32">
         <v>0.49924585218702799</v>
       </c>
       <c r="AP14" s="1">
         <v>4.0157928463277599E-2</v>
       </c>
       <c r="AQ14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10510,238 +11013,238 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="27">
+      <c r="G15" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="21">
         <v>40</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="21">
         <v>5</v>
       </c>
-      <c r="K15" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27">
+      <c r="K15" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21">
         <v>100</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="21">
         <v>70</v>
       </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="38">
+      <c r="O15" s="21"/>
+      <c r="P15" s="29">
         <v>0.92844427244581995</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="Q15" s="29">
         <v>5.1334814753927399E-2</v>
       </c>
-      <c r="R15" s="38">
+      <c r="R15" s="29">
         <v>0.79</v>
       </c>
-      <c r="S15" s="38">
+      <c r="S15" s="29">
         <v>8.2158383625774906E-2</v>
       </c>
-      <c r="T15" s="38">
+      <c r="T15" s="29">
         <v>0.852783552783552</v>
       </c>
-      <c r="U15" s="39">
+      <c r="U15" s="30">
         <v>6.5347021643393996E-2</v>
       </c>
-      <c r="V15" s="39"/>
-      <c r="W15" s="40">
+      <c r="V15" s="30"/>
+      <c r="W15" s="31">
         <v>0</v>
       </c>
-      <c r="X15" s="39">
+      <c r="X15" s="30">
         <v>0</v>
       </c>
-      <c r="Y15" s="39">
+      <c r="Y15" s="30">
         <v>0</v>
       </c>
-      <c r="Z15" s="39">
+      <c r="Z15" s="30">
         <v>0</v>
       </c>
-      <c r="AA15" s="41">
+      <c r="AA15" s="32">
         <v>0</v>
       </c>
-      <c r="AB15" s="39">
+      <c r="AB15" s="30">
         <v>0</v>
       </c>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="40">
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="31">
         <v>0.50782726045883897</v>
       </c>
-      <c r="AE15" s="39">
+      <c r="AE15" s="30">
         <v>1.1731968005748701E-2</v>
       </c>
-      <c r="AF15" s="39">
+      <c r="AF15" s="30">
         <v>1</v>
       </c>
-      <c r="AG15" s="39">
+      <c r="AG15" s="30">
         <v>0</v>
       </c>
-      <c r="AH15" s="41">
+      <c r="AH15" s="32">
         <v>0.67352425482174105</v>
       </c>
-      <c r="AI15" s="39">
+      <c r="AI15" s="30">
         <v>1.0259337843157201E-2</v>
       </c>
-      <c r="AJ15" s="39"/>
-      <c r="AK15" s="40">
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="31">
         <v>0.53427871148459305</v>
       </c>
-      <c r="AL15" s="39">
+      <c r="AL15" s="30">
         <v>0.126016641715927</v>
       </c>
-      <c r="AM15" s="39">
+      <c r="AM15" s="30">
         <v>0.42</v>
       </c>
-      <c r="AN15" s="39">
+      <c r="AN15" s="30">
         <v>0.103682206766638</v>
       </c>
-      <c r="AO15" s="41">
+      <c r="AO15" s="32">
         <v>0.466265709755666</v>
       </c>
       <c r="AP15" s="1">
         <v>0.10300198207744</v>
       </c>
       <c r="AQ15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" s="48" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
         <v>11</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="39">
         <v>11</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="50" t="s">
+      <c r="C16" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="50">
+      <c r="G16" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="41">
         <v>40</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="41">
         <v>5</v>
       </c>
-      <c r="K16" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50">
+      <c r="K16" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41">
         <v>100</v>
       </c>
-      <c r="N16" s="50">
+      <c r="N16" s="41">
         <v>70</v>
       </c>
-      <c r="O16" s="50"/>
-      <c r="P16" s="51">
+      <c r="O16" s="41"/>
+      <c r="P16" s="42">
         <v>0.76334225195094696</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="42">
         <v>4.5791690092676203E-2</v>
       </c>
-      <c r="R16" s="51">
+      <c r="R16" s="42">
         <v>0.9</v>
       </c>
-      <c r="S16" s="51">
+      <c r="S16" s="42">
         <v>9.35414346693485E-2</v>
       </c>
-      <c r="T16" s="51">
+      <c r="T16" s="42">
         <v>0.82447743358764602</v>
       </c>
-      <c r="U16" s="52">
+      <c r="U16" s="43">
         <v>5.80305181590181E-2</v>
       </c>
-      <c r="V16" s="52"/>
-      <c r="W16" s="53">
+      <c r="V16" s="43"/>
+      <c r="W16" s="44">
         <v>0.51311317509459897</v>
       </c>
-      <c r="X16" s="52">
+      <c r="X16" s="43">
         <v>0.10919649700969999</v>
       </c>
-      <c r="Y16" s="52">
+      <c r="Y16" s="43">
         <v>0.43</v>
       </c>
-      <c r="Z16" s="52">
+      <c r="Z16" s="43">
         <v>0.103682206766638</v>
       </c>
-      <c r="AA16" s="54">
+      <c r="AA16" s="45">
         <v>0.46672252356462801</v>
       </c>
-      <c r="AB16" s="52">
+      <c r="AB16" s="43">
         <v>0.10237469394448399</v>
       </c>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="53">
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="44">
         <v>0.373626588465298</v>
       </c>
-      <c r="AE16" s="52">
+      <c r="AE16" s="43">
         <v>2.4736050583653399E-2</v>
       </c>
-      <c r="AF16" s="52">
+      <c r="AF16" s="43">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AG16" s="52">
+      <c r="AG16" s="43">
         <v>5.7008771254956903E-2</v>
       </c>
-      <c r="AH16" s="54">
+      <c r="AH16" s="45">
         <v>0.454348501664816</v>
       </c>
-      <c r="AI16" s="52">
+      <c r="AI16" s="43">
         <v>3.53511207353941E-2</v>
       </c>
-      <c r="AJ16" s="52"/>
-      <c r="AK16" s="53">
+      <c r="AJ16" s="43"/>
+      <c r="AK16" s="44">
         <v>0.2</v>
       </c>
-      <c r="AL16" s="52">
+      <c r="AL16" s="43">
         <v>0.209165006633518</v>
       </c>
-      <c r="AM16" s="55">
+      <c r="AM16" s="46">
         <v>0.03</v>
       </c>
-      <c r="AN16" s="52">
+      <c r="AN16" s="43">
         <v>2.73861278752583E-2</v>
       </c>
-      <c r="AO16" s="57">
+      <c r="AO16" s="48">
         <v>5.15151515151515E-2</v>
       </c>
-      <c r="AP16" s="56">
+      <c r="AP16" s="47">
         <v>4.7128275803017497E-2</v>
       </c>
-      <c r="AQ16" s="48" t="s">
-        <v>150</v>
+      <c r="AQ16" s="39" t="s">
+        <v>146</v>
       </c>
       <c r="AR16"/>
       <c r="AS16"/>
@@ -10759,117 +11262,117 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="27">
+        <v>147</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="21">
         <v>40</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="21">
         <v>5</v>
       </c>
-      <c r="K17" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27">
+      <c r="K17" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21">
         <v>100</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="21">
         <v>70</v>
       </c>
-      <c r="O17" s="27"/>
-      <c r="P17" s="38">
+      <c r="O17" s="21"/>
+      <c r="P17" s="29">
         <v>0.89309036658141505</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="Q17" s="29">
         <v>9.9339840959962594E-2</v>
       </c>
-      <c r="R17" s="38">
+      <c r="R17" s="29">
         <v>0.90999999999999903</v>
       </c>
-      <c r="S17" s="38">
+      <c r="S17" s="29">
         <v>6.5192024052026398E-2</v>
       </c>
-      <c r="T17" s="38">
+      <c r="T17" s="29">
         <v>0.89801390103715595</v>
       </c>
-      <c r="U17" s="39">
+      <c r="U17" s="30">
         <v>6.0226650262277602E-2</v>
       </c>
-      <c r="V17" s="39"/>
-      <c r="W17" s="40">
+      <c r="V17" s="30"/>
+      <c r="W17" s="31">
         <v>0.50526315789473597</v>
       </c>
-      <c r="X17" s="39">
+      <c r="X17" s="30">
         <v>9.8599378742758703E-2</v>
       </c>
-      <c r="Y17" s="39">
+      <c r="Y17" s="30">
         <v>0.45999999999999902</v>
       </c>
-      <c r="Z17" s="39">
+      <c r="Z17" s="30">
         <v>6.5192024052026495E-2</v>
       </c>
-      <c r="AA17" s="41">
+      <c r="AA17" s="32">
         <v>0.477758907758907</v>
       </c>
-      <c r="AB17" s="39">
+      <c r="AB17" s="30">
         <v>6.5877141611113701E-2</v>
       </c>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="40">
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="31">
         <v>0.1</v>
       </c>
-      <c r="AE17" s="39">
+      <c r="AE17" s="30">
         <v>0.22360679774997899</v>
       </c>
-      <c r="AF17" s="44">
+      <c r="AF17" s="35">
         <v>0.01</v>
       </c>
-      <c r="AG17" s="39">
+      <c r="AG17" s="30">
         <v>2.2360679774997901E-2</v>
       </c>
-      <c r="AH17" s="41">
+      <c r="AH17" s="32">
         <v>1.8181818181818101E-2</v>
       </c>
-      <c r="AI17" s="39">
+      <c r="AI17" s="30">
         <v>4.0655781409087002E-2</v>
       </c>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="40">
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="31">
         <v>0.48095238095238002</v>
       </c>
-      <c r="AL17" s="39">
+      <c r="AL17" s="30">
         <v>0.335198861340534</v>
       </c>
-      <c r="AM17" s="39">
+      <c r="AM17" s="30">
         <v>0.16</v>
       </c>
-      <c r="AN17" s="39">
+      <c r="AN17" s="30">
         <v>0.12942179105544699</v>
       </c>
-      <c r="AO17" s="41">
+      <c r="AO17" s="32">
         <v>0.23749712445364601</v>
       </c>
       <c r="AP17" s="1">
         <v>0.18833132012576501</v>
       </c>
       <c r="AQ17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10880,117 +11383,117 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I18" s="27">
+      <c r="E18" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="21">
         <v>40</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="21">
         <v>5</v>
       </c>
-      <c r="K18" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27">
+      <c r="K18" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21">
         <v>100</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="21">
         <v>70</v>
       </c>
-      <c r="O18" s="27"/>
-      <c r="P18" s="38">
+      <c r="O18" s="21"/>
+      <c r="P18" s="29">
         <v>0.82374331550802105</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="Q18" s="29">
         <v>4.90521120560607E-2</v>
       </c>
-      <c r="R18" s="38">
+      <c r="R18" s="29">
         <v>0.83</v>
       </c>
-      <c r="S18" s="38">
+      <c r="S18" s="29">
         <v>7.58287544405154E-2</v>
       </c>
-      <c r="T18" s="38">
+      <c r="T18" s="29">
         <v>0.82501930501930498</v>
       </c>
-      <c r="U18" s="39">
+      <c r="U18" s="30">
         <v>4.6145578761783899E-2</v>
       </c>
-      <c r="V18" s="39"/>
-      <c r="W18" s="40">
+      <c r="V18" s="30"/>
+      <c r="W18" s="31">
         <v>0.50336643748408405</v>
       </c>
-      <c r="X18" s="39">
+      <c r="X18" s="30">
         <v>3.7662739689588103E-2</v>
       </c>
-      <c r="Y18" s="39">
+      <c r="Y18" s="30">
         <v>0.86</v>
       </c>
-      <c r="Z18" s="39">
+      <c r="Z18" s="30">
         <v>5.4772255750516502E-2</v>
       </c>
-      <c r="AA18" s="41">
+      <c r="AA18" s="32">
         <v>0.63496855345911896</v>
       </c>
-      <c r="AB18" s="39">
+      <c r="AB18" s="30">
         <v>4.4448184978126602E-2</v>
       </c>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="40">
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="31">
         <v>0.50256045519203396</v>
       </c>
-      <c r="AE18" s="39">
+      <c r="AE18" s="30">
         <v>1.4511686403990901E-2</v>
       </c>
-      <c r="AF18" s="39">
+      <c r="AF18" s="30">
         <v>0.97</v>
       </c>
-      <c r="AG18" s="39">
+      <c r="AG18" s="30">
         <v>4.4721359549995697E-2</v>
       </c>
-      <c r="AH18" s="41">
+      <c r="AH18" s="32">
         <v>0.66194797338172995</v>
       </c>
-      <c r="AI18" s="39">
+      <c r="AI18" s="30">
         <v>2.10974344386529E-2</v>
       </c>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="40">
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="31">
         <v>0.49369230769230699</v>
       </c>
-      <c r="AL18" s="39">
+      <c r="AL18" s="30">
         <v>3.2327832550241402E-2</v>
       </c>
-      <c r="AM18" s="39">
+      <c r="AM18" s="30">
         <v>0.6</v>
       </c>
-      <c r="AN18" s="39">
+      <c r="AN18" s="30">
         <v>9.35414346693485E-2</v>
       </c>
-      <c r="AO18" s="41">
+      <c r="AO18" s="32">
         <v>0.54054018445322705</v>
       </c>
       <c r="AP18" s="1">
         <v>5.8154421513197101E-2</v>
       </c>
       <c r="AQ18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:50" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11001,117 +11504,117 @@
         <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" s="59">
+        <v>147</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="50">
         <v>40</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="50">
         <v>5</v>
       </c>
-      <c r="K19" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59">
+      <c r="K19" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50">
         <v>100</v>
       </c>
-      <c r="N19" s="59">
+      <c r="N19" s="50">
         <v>70</v>
       </c>
-      <c r="O19" s="59"/>
-      <c r="P19" s="60">
+      <c r="O19" s="50"/>
+      <c r="P19" s="51">
         <v>1</v>
       </c>
-      <c r="Q19" s="60">
+      <c r="Q19" s="51">
         <v>0</v>
       </c>
-      <c r="R19" s="60">
+      <c r="R19" s="51">
         <v>0.49</v>
       </c>
-      <c r="S19" s="60">
+      <c r="S19" s="51">
         <v>4.18330013267037E-2</v>
       </c>
-      <c r="T19" s="60">
+      <c r="T19" s="51">
         <v>0.65687801260659895</v>
       </c>
-      <c r="U19" s="61">
+      <c r="U19" s="52">
         <v>3.7411920817936199E-2</v>
       </c>
-      <c r="V19" s="61"/>
-      <c r="W19" s="62">
+      <c r="V19" s="52"/>
+      <c r="W19" s="53">
         <v>0.463067456170904</v>
       </c>
-      <c r="X19" s="61">
+      <c r="X19" s="52">
         <v>5.0385960663154601E-2</v>
       </c>
-      <c r="Y19" s="61">
+      <c r="Y19" s="52">
         <v>0.67</v>
       </c>
-      <c r="Z19" s="61">
+      <c r="Z19" s="52">
         <v>8.3666002653407498E-2</v>
       </c>
-      <c r="AA19" s="63">
+      <c r="AA19" s="54">
         <v>0.54668524167036803</v>
       </c>
-      <c r="AB19" s="61">
+      <c r="AB19" s="52">
         <v>5.7334867936476901E-2</v>
       </c>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="62">
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="53">
         <v>0.507692307692307</v>
       </c>
-      <c r="AE19" s="61">
+      <c r="AE19" s="52">
         <v>7.0220840705790197E-3</v>
       </c>
-      <c r="AF19" s="61">
+      <c r="AF19" s="52">
         <v>0.99</v>
       </c>
-      <c r="AG19" s="61">
+      <c r="AG19" s="52">
         <v>2.2360679774997901E-2</v>
       </c>
-      <c r="AH19" s="63">
+      <c r="AH19" s="54">
         <v>0.67114747710890299</v>
       </c>
-      <c r="AI19" s="61">
+      <c r="AI19" s="52">
         <v>1.0182843830408701E-2</v>
       </c>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="62">
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="53">
         <v>0.40833333333333299</v>
       </c>
-      <c r="AL19" s="61">
+      <c r="AL19" s="52">
         <v>0.25069348260818802</v>
       </c>
-      <c r="AM19" s="61">
+      <c r="AM19" s="52">
         <v>0.13</v>
       </c>
-      <c r="AN19" s="61">
+      <c r="AN19" s="52">
         <v>7.5828754440515497E-2</v>
       </c>
-      <c r="AO19" s="63">
+      <c r="AO19" s="54">
         <v>0.196703296703296</v>
       </c>
       <c r="AP19" s="6">
         <v>0.115802487699828</v>
       </c>
       <c r="AQ19" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AR19"/>
       <c r="AS19"/>
@@ -11122,81 +11625,81 @@
       <c r="AX19"/>
     </row>
     <row r="20" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="O20" s="27"/>
-      <c r="P20" s="65">
+      <c r="D20" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" s="21"/>
+      <c r="P20" s="56">
         <f>MAX(P5:P19)</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="65">
+      <c r="Q20" s="57"/>
+      <c r="R20" s="56">
         <f>MAX(R5:R19)</f>
         <v>0.99</v>
       </c>
-      <c r="S20" s="66"/>
-      <c r="T20" s="65">
+      <c r="S20" s="57"/>
+      <c r="T20" s="56">
         <f>MAX(T5:T19)</f>
         <v>0.95656213704994197</v>
       </c>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="67">
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="58">
         <f>MAX(W5:W19)</f>
         <v>0.8</v>
       </c>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="68">
+      <c r="X20" s="21"/>
+      <c r="Y20" s="59">
         <f>MAX(Y5:Y19)</f>
         <v>0.99</v>
       </c>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="41">
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="32">
         <f>MAX(AA5:AA19)</f>
         <v>0.66666666666666596</v>
       </c>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="67">
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="58">
         <f>MAX(AD5:AD19)</f>
         <v>0.82113306982872203</v>
       </c>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="68">
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="59">
         <f>MAX(AF5:AF19)</f>
         <v>1</v>
       </c>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="69">
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="60">
         <f>MAX(AH5:AH19)</f>
         <v>0.88473438705996799</v>
       </c>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="40">
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="31">
         <f>MAX(AK5:AK19)</f>
         <v>0.60636363636363599</v>
       </c>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="68">
+      <c r="AL20" s="21"/>
+      <c r="AM20" s="59">
         <f>MAX(AM5:AM19)</f>
         <v>0.88</v>
       </c>
-      <c r="AN20" s="27"/>
-      <c r="AO20" s="41">
+      <c r="AN20" s="21"/>
+      <c r="AO20" s="32">
         <f>MAX(AO5:AO19)</f>
         <v>0.65464221313277904</v>
       </c>
@@ -11204,85 +11707,85 @@
       <c r="AS20" s="1"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="D21" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="72">
+      <c r="D21" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="63">
         <f>AVERAGE(P5:P19)</f>
         <v>0.88552550403884323</v>
       </c>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="72">
+      <c r="Q21" s="64"/>
+      <c r="R21" s="63">
         <f>AVERAGE(R5:R19)</f>
         <v>0.85066666666666657</v>
       </c>
-      <c r="S21" s="73"/>
-      <c r="T21" s="72">
+      <c r="S21" s="64"/>
+      <c r="T21" s="63">
         <f>AVERAGE(T5:T19)</f>
         <v>0.85492752616288992</v>
       </c>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="74">
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="65">
         <f>AVERAGE(W5:W19)</f>
         <v>0.44107511574031055</v>
       </c>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="47">
+      <c r="X21" s="66"/>
+      <c r="Y21" s="38">
         <f>AVERAGE(Y5:Y19)</f>
         <v>0.45799999999999996</v>
       </c>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="76">
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="67">
         <f>AVERAGE(AA5:AA19)</f>
         <v>0.41325103438854016</v>
       </c>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="74">
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="65">
         <f>AVERAGE(AD5:AD19)</f>
         <v>0.41079291539558732</v>
       </c>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="47">
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="38">
         <f>AVERAGE(AF5:AF19)</f>
         <v>0.52933333333333332</v>
       </c>
-      <c r="AG21" s="75"/>
-      <c r="AH21" s="76">
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="67">
         <f>AVERAGE(AH5:AH19)</f>
         <v>0.39236250393787153</v>
       </c>
-      <c r="AI21" s="75"/>
-      <c r="AJ21" s="75"/>
-      <c r="AK21" s="74">
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="65">
         <f>AVERAGE(AK5:AK19)</f>
         <v>0.44232632466762439</v>
       </c>
-      <c r="AL21" s="75"/>
-      <c r="AM21" s="47">
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="38">
         <f>AVERAGE(AM5:AM19)</f>
         <v>0.30933333333333318</v>
       </c>
-      <c r="AN21" s="75"/>
-      <c r="AO21" s="76">
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="67">
         <f>AVERAGE(AO5:AO19)</f>
         <v>0.32792536211839812</v>
       </c>
     </row>
     <row r="22" spans="1:50" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="77"/>
+      <c r="D22" s="68"/>
       <c r="AR22"/>
       <c r="AS22"/>
       <c r="AT22"/>
@@ -11293,441 +11796,441 @@
     </row>
     <row r="23" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:50" ht="21" x14ac:dyDescent="0.35">
-      <c r="D25" s="78" t="s">
-        <v>164</v>
+      <c r="D25" s="69" t="s">
+        <v>160</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
-      </c>
-      <c r="P25" s="79">
+        <v>161</v>
+      </c>
+      <c r="P25" s="70">
         <f t="shared" ref="P25:U25" si="0">AVERAGE(P5:P7)</f>
         <v>0.95072714724888596</v>
       </c>
-      <c r="Q25" s="79">
+      <c r="Q25" s="70">
         <f t="shared" si="0"/>
         <v>2.7696192353078897E-2</v>
       </c>
-      <c r="R25" s="79">
+      <c r="R25" s="70">
         <f t="shared" si="0"/>
         <v>0.8833333333333333</v>
       </c>
-      <c r="S25" s="79">
+      <c r="S25" s="70">
         <f t="shared" si="0"/>
         <v>3.8312943900760899E-2</v>
       </c>
-      <c r="T25" s="79">
+      <c r="T25" s="70">
         <f t="shared" si="0"/>
         <v>0.90625732082940669</v>
       </c>
-      <c r="U25" s="79">
+      <c r="U25" s="70">
         <f t="shared" si="0"/>
         <v>3.3078111121048033E-2</v>
       </c>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79">
+      <c r="V25" s="70"/>
+      <c r="W25" s="70">
         <f t="shared" ref="W25:AB25" si="1">AVERAGE(W5:W7)</f>
         <v>0.61882374110237881</v>
       </c>
-      <c r="X25" s="79">
+      <c r="X25" s="70">
         <f t="shared" si="1"/>
         <v>9.258283872813923E-2</v>
       </c>
-      <c r="Y25" s="79">
+      <c r="Y25" s="70">
         <f t="shared" si="1"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="Z25" s="79">
+      <c r="Z25" s="70">
         <f t="shared" si="1"/>
         <v>6.6330724101850161E-2</v>
       </c>
-      <c r="AA25" s="79">
+      <c r="AA25" s="70">
         <f t="shared" si="1"/>
         <v>0.49352561352561297</v>
       </c>
-      <c r="AB25" s="79">
+      <c r="AB25" s="70">
         <f t="shared" si="1"/>
         <v>6.848409582985554E-2</v>
       </c>
-      <c r="AC25" s="79"/>
-      <c r="AD25" s="79">
+      <c r="AC25" s="70"/>
+      <c r="AD25" s="70">
         <f t="shared" ref="AD25:AI25" si="2">AVERAGE(AD5:AD7)</f>
         <v>0.37953216374268967</v>
       </c>
-      <c r="AE25" s="79">
+      <c r="AE25" s="70">
         <f t="shared" si="2"/>
         <v>0.29889420816638962</v>
       </c>
-      <c r="AF25" s="79">
+      <c r="AF25" s="70">
         <f t="shared" si="2"/>
         <v>0.34333333333333332</v>
       </c>
-      <c r="AG25" s="79">
+      <c r="AG25" s="70">
         <f t="shared" si="2"/>
         <v>3.0526602992319966E-2</v>
       </c>
-      <c r="AH25" s="79">
+      <c r="AH25" s="70">
         <f t="shared" si="2"/>
         <v>0.25258843173614576</v>
       </c>
-      <c r="AI25" s="79">
+      <c r="AI25" s="70">
         <f t="shared" si="2"/>
         <v>4.4728391319122464E-2</v>
       </c>
-      <c r="AJ25" s="79"/>
-      <c r="AK25" s="79">
+      <c r="AJ25" s="70"/>
+      <c r="AK25" s="70">
         <f t="shared" ref="AK25:AP25" si="3">AVERAGE(AK5:AK7)</f>
         <v>0.40791486291486256</v>
       </c>
-      <c r="AL25" s="79">
+      <c r="AL25" s="70">
         <f t="shared" si="3"/>
         <v>9.3162973333544549E-2</v>
       </c>
-      <c r="AM25" s="79">
+      <c r="AM25" s="70">
         <f t="shared" si="3"/>
         <v>0.16666666666666599</v>
       </c>
-      <c r="AN25" s="79">
+      <c r="AN25" s="70">
         <f t="shared" si="3"/>
         <v>3.1489389066750632E-2</v>
       </c>
-      <c r="AO25" s="79">
+      <c r="AO25" s="70">
         <f t="shared" si="3"/>
         <v>0.23113957418273801</v>
       </c>
-      <c r="AP25" s="79">
+      <c r="AP25" s="70">
         <f t="shared" si="3"/>
         <v>4.0425617308828564E-2</v>
       </c>
-      <c r="AQ25" s="79"/>
+      <c r="AQ25" s="70"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="D26" s="80" t="s">
-        <v>166</v>
+      <c r="D26" s="91" t="s">
+        <v>162</v>
       </c>
       <c r="N26" t="s">
-        <v>167</v>
-      </c>
-      <c r="P26" s="79">
+        <v>163</v>
+      </c>
+      <c r="P26" s="70">
         <f t="shared" ref="P26:U26" si="4">AVERAGE(P8:P16)</f>
         <v>0.85709638186072823</v>
       </c>
-      <c r="Q26" s="79">
+      <c r="Q26" s="70">
         <f t="shared" si="4"/>
         <v>3.8135985166987678E-2</v>
       </c>
-      <c r="R26" s="79">
+      <c r="R26" s="70">
         <f t="shared" si="4"/>
         <v>0.87555555555555553</v>
       </c>
-      <c r="S26" s="79">
+      <c r="S26" s="70">
         <f t="shared" si="4"/>
         <v>5.4866801533036455E-2</v>
       </c>
-      <c r="T26" s="79">
+      <c r="T26" s="70">
         <f t="shared" si="4"/>
         <v>0.85835885681022972</v>
       </c>
-      <c r="U26" s="79">
+      <c r="U26" s="70">
         <f t="shared" si="4"/>
         <v>3.9529354743701513E-2</v>
       </c>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79">
+      <c r="V26" s="70"/>
+      <c r="W26" s="70">
         <f t="shared" ref="W26:AB26" si="5">AVERAGE(W8:W16)</f>
         <v>0.36532871791642185</v>
       </c>
-      <c r="X26" s="79">
+      <c r="X26" s="70">
         <f t="shared" si="5"/>
         <v>0.10131081101026612</v>
       </c>
-      <c r="Y26" s="79">
+      <c r="Y26" s="70">
         <f t="shared" si="5"/>
         <v>0.35222222222222227</v>
       </c>
-      <c r="Z26" s="79">
+      <c r="Z26" s="70">
         <f t="shared" si="5"/>
         <v>7.2425038544665157E-2</v>
       </c>
-      <c r="AA26" s="79">
+      <c r="AA26" s="70">
         <f t="shared" si="5"/>
         <v>0.33986399692920766</v>
       </c>
-      <c r="AB26" s="79">
+      <c r="AB26" s="70">
         <f t="shared" si="5"/>
         <v>6.4214980200728952E-2</v>
       </c>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79">
+      <c r="AC26" s="70"/>
+      <c r="AD26" s="70">
         <f t="shared" ref="AD26:AI26" si="6">AVERAGE(AD8:AD16)</f>
         <v>0.43478271964682219</v>
       </c>
-      <c r="AE26" s="79">
+      <c r="AE26" s="70">
         <f t="shared" si="6"/>
         <v>0.14916555505850845</v>
       </c>
-      <c r="AF26" s="79">
+      <c r="AF26" s="70">
         <f t="shared" si="6"/>
         <v>0.54888888888888887</v>
       </c>
-      <c r="AG26" s="79">
+      <c r="AG26" s="70">
         <f t="shared" si="6"/>
         <v>2.7564688392492119E-2</v>
       </c>
-      <c r="AH26" s="79">
+      <c r="AH26" s="70">
         <f t="shared" si="6"/>
         <v>0.41959944390968712</v>
       </c>
-      <c r="AI26" s="79">
+      <c r="AI26" s="70">
         <f t="shared" si="6"/>
         <v>2.9934600914682721E-2</v>
       </c>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79">
+      <c r="AJ26" s="70"/>
+      <c r="AK26" s="70">
         <f t="shared" ref="AK26:AP26" si="7">AVERAGE(AK8:AK16)</f>
         <v>0.44757469547686185</v>
       </c>
-      <c r="AL26" s="79">
+      <c r="AL26" s="70">
         <f t="shared" si="7"/>
         <v>0.12924311549241685</v>
       </c>
-      <c r="AM26" s="79">
+      <c r="AM26" s="70">
         <f t="shared" si="7"/>
         <v>0.36111111111111105</v>
       </c>
-      <c r="AN26" s="79">
+      <c r="AN26" s="70">
         <f t="shared" si="7"/>
         <v>7.1188752596645061E-2</v>
       </c>
-      <c r="AO26" s="79">
+      <c r="AO26" s="70">
         <f t="shared" si="7"/>
         <v>0.36119123373528772</v>
       </c>
-      <c r="AP26" s="79">
+      <c r="AP26" s="70">
         <f t="shared" si="7"/>
         <v>7.8598388623558654E-2</v>
       </c>
-      <c r="AQ26" s="79"/>
+      <c r="AQ26" s="70"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="D27" s="80"/>
+      <c r="D27" s="91"/>
       <c r="N27" t="s">
-        <v>168</v>
-      </c>
-      <c r="P27" s="79">
+        <v>164</v>
+      </c>
+      <c r="P27" s="70">
         <f t="shared" ref="P27:U27" si="8">AVERAGE(P17:P19)</f>
         <v>0.90561122736314525</v>
       </c>
-      <c r="Q27" s="79">
+      <c r="Q27" s="70">
         <f t="shared" si="8"/>
         <v>4.9463984338674431E-2</v>
       </c>
-      <c r="R27" s="79">
+      <c r="R27" s="70">
         <f t="shared" si="8"/>
         <v>0.74333333333333285</v>
       </c>
-      <c r="S27" s="79">
+      <c r="S27" s="70">
         <f t="shared" si="8"/>
         <v>6.0951259939748502E-2</v>
       </c>
-      <c r="T27" s="79">
+      <c r="T27" s="70">
         <f t="shared" si="8"/>
         <v>0.79330373955435329</v>
       </c>
-      <c r="U27" s="79">
+      <c r="U27" s="70">
         <f t="shared" si="8"/>
         <v>4.7928049947332567E-2</v>
       </c>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79">
+      <c r="V27" s="70"/>
+      <c r="W27" s="70">
         <f t="shared" ref="W27:AB27" si="9">AVERAGE(W17:W19)</f>
         <v>0.49056568384990801</v>
       </c>
-      <c r="X27" s="79">
+      <c r="X27" s="70">
         <f t="shared" si="9"/>
         <v>6.2216026365167133E-2</v>
       </c>
-      <c r="Y27" s="79">
+      <c r="Y27" s="70">
         <f t="shared" si="9"/>
         <v>0.663333333333333</v>
       </c>
-      <c r="Z27" s="79">
+      <c r="Z27" s="70">
         <f t="shared" si="9"/>
         <v>6.787676081865017E-2</v>
       </c>
-      <c r="AA27" s="79">
+      <c r="AA27" s="70">
         <f t="shared" si="9"/>
         <v>0.55313756762946464</v>
       </c>
-      <c r="AB27" s="79">
+      <c r="AB27" s="70">
         <f t="shared" si="9"/>
         <v>5.5886731508572401E-2</v>
       </c>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79">
+      <c r="AC27" s="70"/>
+      <c r="AD27" s="70">
         <f t="shared" ref="AD27:AI27" si="10">AVERAGE(AD17:AD19)</f>
         <v>0.37008425429478037</v>
       </c>
-      <c r="AE27" s="79">
+      <c r="AE27" s="70">
         <f t="shared" si="10"/>
         <v>8.1713522741516303E-2</v>
       </c>
-      <c r="AF27" s="79">
+      <c r="AF27" s="70">
         <f t="shared" si="10"/>
         <v>0.65666666666666662</v>
       </c>
-      <c r="AG27" s="79">
+      <c r="AG27" s="70">
         <f t="shared" si="10"/>
         <v>2.9814239699997164E-2</v>
       </c>
-      <c r="AH27" s="79">
+      <c r="AH27" s="70">
         <f t="shared" si="10"/>
         <v>0.45042575622415032</v>
       </c>
-      <c r="AI27" s="79">
+      <c r="AI27" s="70">
         <f t="shared" si="10"/>
         <v>2.3978686559382869E-2</v>
       </c>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79">
+      <c r="AJ27" s="70"/>
+      <c r="AK27" s="70">
         <f t="shared" ref="AK27:AP27" si="11">AVERAGE(AK17:AK19)</f>
         <v>0.4609926739926733</v>
       </c>
-      <c r="AL27" s="79">
+      <c r="AL27" s="70">
         <f t="shared" si="11"/>
         <v>0.20607339216632115</v>
       </c>
-      <c r="AM27" s="79">
+      <c r="AM27" s="70">
         <f t="shared" si="11"/>
         <v>0.29666666666666669</v>
       </c>
-      <c r="AN27" s="79">
+      <c r="AN27" s="70">
         <f t="shared" si="11"/>
         <v>9.9597326721770338E-2</v>
       </c>
-      <c r="AO27" s="79">
+      <c r="AO27" s="70">
         <f t="shared" si="11"/>
         <v>0.32491353520338967</v>
       </c>
-      <c r="AP27" s="79">
+      <c r="AP27" s="70">
         <f t="shared" si="11"/>
         <v>0.12076274311293005</v>
       </c>
-      <c r="AQ27" s="79"/>
+      <c r="AQ27" s="70"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="D28" s="80"/>
+      <c r="D28" s="91"/>
       <c r="N28" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O28" s="4"/>
-      <c r="P28" s="79">
+      <c r="P28" s="70">
         <f>AVERAGE(P5:P22)</f>
         <v>0.89225929791891123</v>
       </c>
-      <c r="Q28" s="79">
+      <c r="Q28" s="70">
         <f t="shared" ref="Q28:AP28" si="12">AVERAGE(Q5:Q22)</f>
         <v>3.8313626438543275E-2</v>
       </c>
-      <c r="R28" s="79">
+      <c r="R28" s="70">
         <f t="shared" si="12"/>
         <v>0.85886274509803917</v>
       </c>
-      <c r="S28" s="79">
+      <c r="S28" s="70">
         <f t="shared" si="12"/>
         <v>5.277292168792376E-2</v>
       </c>
-      <c r="T28" s="79">
+      <c r="T28" s="70">
         <f t="shared" si="12"/>
         <v>0.86090603268565769</v>
       </c>
-      <c r="U28" s="79">
+      <c r="U28" s="70">
         <f t="shared" si="12"/>
         <v>3.9918845059897033E-2</v>
       </c>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79">
+      <c r="V28" s="70"/>
+      <c r="W28" s="70">
         <f t="shared" si="12"/>
         <v>0.46218834422617461</v>
       </c>
-      <c r="X28" s="79">
+      <c r="X28" s="70">
         <f t="shared" si="12"/>
         <v>9.1746259624820928E-2</v>
       </c>
-      <c r="Y28" s="79">
+      <c r="Y28" s="70">
         <f t="shared" si="12"/>
         <v>0.48929411764705882</v>
       </c>
-      <c r="Z28" s="79">
+      <c r="Z28" s="70">
         <f t="shared" si="12"/>
         <v>7.0296520110899166E-2</v>
       </c>
-      <c r="AA28" s="79">
+      <c r="AA28" s="70">
         <f t="shared" si="12"/>
         <v>0.42815783628725346</v>
       </c>
-      <c r="AB28" s="79">
+      <c r="AB28" s="70">
         <f t="shared" si="12"/>
         <v>6.3403153588122957E-2</v>
       </c>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79">
+      <c r="AC28" s="70"/>
+      <c r="AD28" s="70">
         <f t="shared" si="12"/>
         <v>0.4349305715387129</v>
       </c>
-      <c r="AE28" s="79">
+      <c r="AE28" s="70">
         <f t="shared" si="12"/>
         <v>0.16562087921668622</v>
       </c>
-      <c r="AF28" s="79">
+      <c r="AF28" s="70">
         <f t="shared" si="12"/>
         <v>0.5570196078431372</v>
       </c>
-      <c r="AG28" s="79">
+      <c r="AG28" s="70">
         <f t="shared" si="12"/>
         <v>2.8606981573958697E-2</v>
       </c>
-      <c r="AH28" s="79">
+      <c r="AH28" s="70">
         <f t="shared" si="12"/>
         <v>0.42132555588623016</v>
       </c>
-      <c r="AI28" s="79">
+      <c r="AI28" s="70">
         <f t="shared" si="12"/>
         <v>3.1702176124510699E-2</v>
       </c>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79">
+      <c r="AJ28" s="70"/>
+      <c r="AK28" s="70">
         <f t="shared" si="12"/>
         <v>0.45197557829680152</v>
       </c>
-      <c r="AL28" s="79">
+      <c r="AL28" s="70">
         <f t="shared" si="12"/>
         <v>0.13739314239542325</v>
       </c>
-      <c r="AM28" s="79">
+      <c r="AM28" s="70">
         <f t="shared" si="12"/>
         <v>0.34290196078431356</v>
       </c>
-      <c r="AN28" s="79">
+      <c r="AN28" s="70">
         <f t="shared" si="12"/>
         <v>6.8930594715691226E-2</v>
       </c>
-      <c r="AO28" s="79">
+      <c r="AO28" s="70">
         <f t="shared" si="12"/>
         <v>0.34714400041336169</v>
       </c>
-      <c r="AP28" s="79">
+      <c r="AP28" s="70">
         <f t="shared" si="12"/>
         <v>7.939670525848691E-2</v>
       </c>
-      <c r="AQ28" s="79"/>
+      <c r="AQ28" s="70"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="N30" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O30" s="4"/>
       <c r="X30" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
@@ -11745,7 +12248,7 @@
         <v>36</v>
       </c>
       <c r="U31" s="81"/>
-      <c r="V31" s="82"/>
+      <c r="V31" s="71"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="81" t="s">
         <v>32</v>
@@ -11755,7 +12258,7 @@
         <v>35</v>
       </c>
       <c r="AB31" s="81"/>
-      <c r="AC31" s="82"/>
+      <c r="AC31" s="71"/>
       <c r="AD31" s="81" t="s">
         <v>36</v>
       </c>
@@ -11899,7 +12402,7 @@
         <f>AE$25</f>
         <v>0.29889420816638962</v>
       </c>
-      <c r="AA34" s="83">
+      <c r="AA34" s="72">
         <f>AF$25</f>
         <v>0.34333333333333332</v>
       </c>
@@ -11980,56 +12483,56 @@
         <v>30</v>
       </c>
       <c r="O36" s="7"/>
-      <c r="P36" s="84">
+      <c r="P36" s="73">
         <f>$P28</f>
         <v>0.89225929791891123</v>
       </c>
-      <c r="Q36" s="84">
+      <c r="Q36" s="73">
         <f>Q28</f>
         <v>3.8313626438543275E-2</v>
       </c>
-      <c r="R36" s="84">
+      <c r="R36" s="73">
         <f>R28</f>
         <v>0.85886274509803917</v>
       </c>
-      <c r="S36" s="84">
+      <c r="S36" s="73">
         <f>S28</f>
         <v>5.277292168792376E-2</v>
       </c>
-      <c r="T36" s="84">
+      <c r="T36" s="73">
         <f>T28</f>
         <v>0.86090603268565769</v>
       </c>
-      <c r="U36" s="84">
+      <c r="U36" s="73">
         <f>U28</f>
         <v>3.9918845059897033E-2</v>
       </c>
-      <c r="V36" s="84"/>
+      <c r="V36" s="73"/>
       <c r="X36" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Y36" s="84">
+      <c r="Y36" s="73">
         <f>$P$25</f>
         <v>0.95072714724888596</v>
       </c>
-      <c r="Z36" s="84">
+      <c r="Z36" s="73">
         <f>Q$25</f>
         <v>2.7696192353078897E-2</v>
       </c>
-      <c r="AA36" s="84">
+      <c r="AA36" s="73">
         <f>R$25</f>
         <v>0.8833333333333333</v>
       </c>
-      <c r="AB36" s="84">
+      <c r="AB36" s="73">
         <f>S$25</f>
         <v>3.8312943900760899E-2</v>
       </c>
-      <c r="AC36" s="84"/>
-      <c r="AD36" s="84">
+      <c r="AC36" s="73"/>
+      <c r="AD36" s="73">
         <f>T$25</f>
         <v>0.90625732082940669</v>
       </c>
-      <c r="AE36" s="84">
+      <c r="AE36" s="73">
         <f>U$25</f>
         <v>3.3078111121048033E-2</v>
       </c>
@@ -12088,11 +12591,11 @@
     </row>
     <row r="39" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N39" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O39" s="4"/>
       <c r="X39" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="14:31" x14ac:dyDescent="0.25">
@@ -12110,7 +12613,7 @@
         <v>36</v>
       </c>
       <c r="U40" s="81"/>
-      <c r="V40" s="82"/>
+      <c r="V40" s="71"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="81" t="s">
         <v>32</v>
@@ -12120,7 +12623,7 @@
         <v>35</v>
       </c>
       <c r="AB40" s="81"/>
-      <c r="AC40" s="82"/>
+      <c r="AC40" s="71"/>
       <c r="AD40" s="81" t="s">
         <v>36</v>
       </c>
@@ -12345,56 +12848,56 @@
         <v>30</v>
       </c>
       <c r="O45" s="7"/>
-      <c r="P45" s="84">
+      <c r="P45" s="73">
         <f>$P$26</f>
         <v>0.85709638186072823</v>
       </c>
-      <c r="Q45" s="84">
+      <c r="Q45" s="73">
         <f>Q$26</f>
         <v>3.8135985166987678E-2</v>
       </c>
-      <c r="R45" s="84">
+      <c r="R45" s="73">
         <f>R$26</f>
         <v>0.87555555555555553</v>
       </c>
-      <c r="S45" s="84">
+      <c r="S45" s="73">
         <f>S$26</f>
         <v>5.4866801533036455E-2</v>
       </c>
-      <c r="T45" s="84">
+      <c r="T45" s="73">
         <f>T$26</f>
         <v>0.85835885681022972</v>
       </c>
-      <c r="U45" s="84">
+      <c r="U45" s="73">
         <f>U$26</f>
         <v>3.9529354743701513E-2</v>
       </c>
-      <c r="V45" s="84"/>
+      <c r="V45" s="73"/>
       <c r="X45" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Y45" s="84">
+      <c r="Y45" s="73">
         <f>$P$27</f>
         <v>0.90561122736314525</v>
       </c>
-      <c r="Z45" s="84">
+      <c r="Z45" s="73">
         <f>Q$27</f>
         <v>4.9463984338674431E-2</v>
       </c>
-      <c r="AA45" s="84">
+      <c r="AA45" s="73">
         <f>R$27</f>
         <v>0.74333333333333285</v>
       </c>
-      <c r="AB45" s="84">
+      <c r="AB45" s="73">
         <f>S$27</f>
         <v>6.0951259939748502E-2</v>
       </c>
-      <c r="AC45" s="84"/>
-      <c r="AD45" s="84">
+      <c r="AC45" s="73"/>
+      <c r="AD45" s="73">
         <f>T$27</f>
         <v>0.79330373955435329</v>
       </c>
-      <c r="AE45" s="84">
+      <c r="AE45" s="73">
         <f>U$27</f>
         <v>4.7928049947332567E-2</v>
       </c>
@@ -12456,14 +12959,14 @@
     </row>
     <row r="48" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="R48" s="1">
         <f>SUM(P37,R37,T37,Y37,AA37,AD37,AD46,AA46,Y46,P46,R46,T46)/12</f>
         <v>0.34439918462657321</v>
       </c>
       <c r="S48" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="14:19" x14ac:dyDescent="0.25">
@@ -12472,15 +12975,15 @@
         <v>-1.2476035036042461E-3</v>
       </c>
       <c r="S49" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="R50" s="85"/>
+      <c r="R50" s="74"/>
     </row>
     <row r="51" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N51" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R51" s="1">
         <f>AVERAGE(P37,Y37,P46,Y46)</f>
@@ -12495,11 +12998,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="W2:AO2"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AK3:AO3"/>
     <mergeCell ref="AD40:AE40"/>
     <mergeCell ref="P31:Q31"/>
     <mergeCell ref="R31:S31"/>
@@ -12507,12 +13011,11 @@
     <mergeCell ref="Y31:Z31"/>
     <mergeCell ref="AA31:AB31"/>
     <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="W2:AO2"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AK3:AO3"/>
-    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="AA40:AB40"/>
   </mergeCells>
   <conditionalFormatting sqref="Y20">
     <cfRule type="cellIs" dxfId="52" priority="52" operator="greaterThan">
@@ -12712,7 +13215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF9056E-25EA-450D-B785-B0A7D3A97CBB}">
   <dimension ref="B2:R37"/>
   <sheetViews>
@@ -12734,761 +13237,761 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="86" t="s">
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="86" t="s">
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="O2" s="86" t="s">
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="O2" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="88" t="s">
+      <c r="E3" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="88" t="s">
+      <c r="I3" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="O3" s="88" t="s">
+      <c r="M3" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="O3" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="88" t="s">
+      <c r="P3" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="R3" s="89"/>
+      <c r="Q3" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" s="77"/>
     </row>
     <row r="4" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="90">
+        <v>175</v>
+      </c>
+      <c r="C4" s="78">
         <v>1</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="78">
         <v>0.7</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="78">
         <v>0.82271454036159897</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="90">
+      <c r="F4" s="26"/>
+      <c r="G4" s="78">
         <v>0.48735072976559002</v>
       </c>
-      <c r="H4" s="90">
+      <c r="H4" s="78">
         <v>0.44</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="78">
         <v>0.460271572753638</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="90">
+      <c r="J4" s="26"/>
+      <c r="K4" s="78">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="L4" s="90">
+      <c r="L4" s="78">
         <v>0.01</v>
       </c>
-      <c r="M4" s="90">
+      <c r="M4" s="78">
         <v>1.7391304347826E-2</v>
       </c>
-      <c r="O4" s="90">
+      <c r="O4" s="78">
         <v>0.45670163170163097</v>
       </c>
-      <c r="P4" s="90">
+      <c r="P4" s="78">
         <v>0.27999999999999903</v>
       </c>
-      <c r="Q4" s="90">
+      <c r="Q4" s="78">
         <v>0.34349726407568398</v>
       </c>
-      <c r="R4" s="89"/>
+      <c r="R4" s="77"/>
     </row>
     <row r="5" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="90">
+        <v>176</v>
+      </c>
+      <c r="C5" s="78">
         <v>0.93820384294068504</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="78">
         <v>0.9</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="78">
         <v>0.91787597511602603</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="90">
+      <c r="F5" s="26"/>
+      <c r="G5" s="78">
         <v>0</v>
       </c>
-      <c r="H5" s="90">
+      <c r="H5" s="78">
         <v>0</v>
       </c>
-      <c r="I5" s="90">
+      <c r="I5" s="78">
         <v>0</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="90">
+      <c r="J5" s="26"/>
+      <c r="K5" s="78">
         <v>0.45</v>
       </c>
-      <c r="L5" s="90">
+      <c r="L5" s="78">
         <v>0.03</v>
       </c>
-      <c r="M5" s="90">
+      <c r="M5" s="78">
         <v>5.4761904761904699E-2</v>
       </c>
-      <c r="O5" s="90">
+      <c r="O5" s="78">
         <v>0.36666666666666597</v>
       </c>
-      <c r="P5" s="90">
+      <c r="P5" s="78">
         <v>0.06</v>
       </c>
-      <c r="Q5" s="90">
+      <c r="Q5" s="78">
         <v>0.10289855072463699</v>
       </c>
-      <c r="R5" s="89"/>
+      <c r="R5" s="77"/>
     </row>
     <row r="6" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="91" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="92">
+      <c r="B6" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="80">
         <v>0.89544513457556896</v>
       </c>
-      <c r="D6" s="92">
+      <c r="D6" s="80">
         <v>1</v>
       </c>
-      <c r="E6" s="92">
+      <c r="E6" s="80">
         <v>0.94415510751302001</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="92">
+      <c r="F6" s="26"/>
+      <c r="G6" s="80">
         <v>0.49757085020242903</v>
       </c>
-      <c r="H6" s="92">
+      <c r="H6" s="80">
         <v>0.53</v>
       </c>
-      <c r="I6" s="92">
+      <c r="I6" s="80">
         <v>0.51073967984723101</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="92">
+      <c r="J6" s="26"/>
+      <c r="K6" s="80">
         <v>0.49729729729729699</v>
       </c>
-      <c r="L6" s="92">
+      <c r="L6" s="80">
         <v>0.96</v>
       </c>
-      <c r="M6" s="92">
+      <c r="M6" s="80">
         <v>0.65509038522665497</v>
       </c>
-      <c r="O6" s="92">
+      <c r="O6" s="80">
         <v>0.58428571428571396</v>
       </c>
-      <c r="P6" s="92">
+      <c r="P6" s="80">
         <v>0.15</v>
       </c>
-      <c r="Q6" s="92">
+      <c r="Q6" s="80">
         <v>0.237259259259259</v>
       </c>
-      <c r="R6" s="89"/>
+      <c r="R6" s="77"/>
     </row>
     <row r="7" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="90">
+        <v>123</v>
+      </c>
+      <c r="C7" s="78">
         <v>0.90724637681159404</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="78">
         <v>0.96</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="78">
         <v>0.93238797504254101</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="90">
+      <c r="F7" s="26"/>
+      <c r="G7" s="78">
         <v>0.52295195001077299</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="78">
         <v>0.55999999999999905</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="78">
         <v>0.53805310564589404</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="90">
+      <c r="J7" s="26"/>
+      <c r="K7" s="78">
         <v>0.36666666666666597</v>
       </c>
-      <c r="L7" s="90">
+      <c r="L7" s="78">
         <v>0.03</v>
       </c>
-      <c r="M7" s="90">
+      <c r="M7" s="78">
         <v>5.46207415772633E-2</v>
       </c>
-      <c r="O7" s="90">
+      <c r="O7" s="78">
         <v>0.498181818181818</v>
       </c>
-      <c r="P7" s="90">
+      <c r="P7" s="78">
         <v>0.25</v>
       </c>
-      <c r="Q7" s="90">
+      <c r="Q7" s="78">
         <v>0.33198156682027602</v>
       </c>
-      <c r="R7" s="89"/>
+      <c r="R7" s="77"/>
     </row>
     <row r="8" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="90">
+        <v>178</v>
+      </c>
+      <c r="C8" s="78">
         <v>0.88616768370200805</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="78">
         <v>0.8</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="78">
         <v>0.83620437498038402</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="90">
+      <c r="F8" s="26"/>
+      <c r="G8" s="78">
         <v>0.38</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H8" s="78">
         <v>0.13</v>
       </c>
-      <c r="I8" s="90">
+      <c r="I8" s="78">
         <v>0.19152380952380901</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="90">
+      <c r="J8" s="26"/>
+      <c r="K8" s="78">
         <v>0.4</v>
       </c>
-      <c r="L8" s="90">
+      <c r="L8" s="78">
         <v>0.02</v>
       </c>
-      <c r="M8" s="90">
+      <c r="M8" s="78">
         <v>3.8095238095238002E-2</v>
       </c>
-      <c r="O8" s="90">
+      <c r="O8" s="78">
         <v>0.46333333333333299</v>
       </c>
-      <c r="P8" s="90">
+      <c r="P8" s="78">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q8" s="90">
+      <c r="Q8" s="78">
         <v>0.20695837495837399</v>
       </c>
-      <c r="R8" s="89"/>
+      <c r="R8" s="77"/>
     </row>
     <row r="9" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="91" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="92">
+      <c r="B9" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="80">
         <v>0.78345221445221402</v>
       </c>
-      <c r="D9" s="92">
+      <c r="D9" s="80">
         <v>0.93</v>
       </c>
-      <c r="E9" s="92">
+      <c r="E9" s="80">
         <v>0.84949745906267604</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="92">
+      <c r="F9" s="26"/>
+      <c r="G9" s="80">
         <v>0</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="80">
         <v>0</v>
       </c>
-      <c r="I9" s="92">
+      <c r="I9" s="80">
         <v>0</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="92">
+      <c r="J9" s="26"/>
+      <c r="K9" s="80">
         <v>0.507538510170089</v>
       </c>
-      <c r="L9" s="92">
+      <c r="L9" s="80">
         <v>0.96</v>
       </c>
-      <c r="M9" s="92">
+      <c r="M9" s="80">
         <v>0.66387937992262902</v>
       </c>
-      <c r="O9" s="92">
+      <c r="O9" s="80">
         <v>0.51861111111111102</v>
       </c>
-      <c r="P9" s="92">
+      <c r="P9" s="80">
         <v>0.21</v>
       </c>
-      <c r="Q9" s="92">
+      <c r="Q9" s="80">
         <v>0.28705098732684903</v>
       </c>
-      <c r="R9" s="89"/>
+      <c r="R9" s="77"/>
     </row>
     <row r="10" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="90">
+        <v>131</v>
+      </c>
+      <c r="C10" s="78">
         <v>0.82136363636363596</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="78">
         <v>0.96</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="78">
         <v>0.88470418470418399</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="90">
+      <c r="F10" s="26"/>
+      <c r="G10" s="78">
         <v>0.51333333333333298</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="78">
         <v>0.09</v>
       </c>
-      <c r="I10" s="90">
+      <c r="I10" s="78">
         <v>0.14930009121313401</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="90">
+      <c r="J10" s="26"/>
+      <c r="K10" s="78">
         <v>0.49729729729729699</v>
       </c>
-      <c r="L10" s="90">
+      <c r="L10" s="78">
         <v>0.97</v>
       </c>
-      <c r="M10" s="90">
+      <c r="M10" s="78">
         <v>0.65738923580136699</v>
       </c>
-      <c r="O10" s="90">
+      <c r="O10" s="78">
         <v>0.488533633549113</v>
       </c>
-      <c r="P10" s="90">
+      <c r="P10" s="78">
         <v>0.47</v>
       </c>
-      <c r="Q10" s="90">
+      <c r="Q10" s="78">
         <v>0.47794475794475699</v>
       </c>
-      <c r="R10" s="89"/>
+      <c r="R10" s="77"/>
     </row>
     <row r="11" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="90">
+        <v>180</v>
+      </c>
+      <c r="C11" s="78">
         <v>0.73915343915343901</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="78">
         <v>0.99</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="78">
         <v>0.84622263336416803</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="90">
+      <c r="F11" s="26"/>
+      <c r="G11" s="78">
         <v>0.47445378151260498</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="78">
         <v>0.51</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="78">
         <v>0.48685827290705302</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="90">
+      <c r="J11" s="26"/>
+      <c r="K11" s="78">
         <v>0.70628844839371097</v>
       </c>
-      <c r="L11" s="90">
+      <c r="L11" s="78">
         <v>0.72</v>
       </c>
-      <c r="M11" s="90">
+      <c r="M11" s="78">
         <v>0.71246314660948795</v>
       </c>
-      <c r="O11" s="90">
+      <c r="O11" s="78">
         <v>0.53242424242424202</v>
       </c>
-      <c r="P11" s="90">
+      <c r="P11" s="78">
         <v>0.27999999999999903</v>
       </c>
-      <c r="Q11" s="90">
+      <c r="Q11" s="78">
         <v>0.36601130886169803</v>
       </c>
-      <c r="R11" s="89"/>
+      <c r="R11" s="77"/>
     </row>
     <row r="12" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="91" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="92">
+      <c r="B12" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="80">
         <v>0.67061087061086999</v>
       </c>
-      <c r="D12" s="92">
+      <c r="D12" s="80">
         <v>0.78</v>
       </c>
-      <c r="E12" s="92">
+      <c r="E12" s="80">
         <v>0.71970022712108805</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="92">
+      <c r="F12" s="26"/>
+      <c r="G12" s="80">
         <v>0.52182327476445101</v>
       </c>
-      <c r="H12" s="92">
+      <c r="H12" s="80">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I12" s="92">
+      <c r="I12" s="80">
         <v>0.53402106572838204</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="92">
+      <c r="J12" s="26"/>
+      <c r="K12" s="80">
         <v>0.5</v>
       </c>
-      <c r="L12" s="92">
+      <c r="L12" s="80">
         <v>0.98</v>
       </c>
-      <c r="M12" s="92">
+      <c r="M12" s="80">
         <v>0.662107929086304</v>
       </c>
-      <c r="O12" s="92">
+      <c r="O12" s="80">
         <v>0.47212509712509698</v>
       </c>
-      <c r="P12" s="92">
+      <c r="P12" s="80">
         <v>0.25</v>
       </c>
-      <c r="Q12" s="92">
+      <c r="Q12" s="80">
         <v>0.32454019376989302</v>
       </c>
-      <c r="R12" s="89"/>
+      <c r="R12" s="77"/>
     </row>
     <row r="13" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="90">
+        <v>139</v>
+      </c>
+      <c r="C13" s="78">
         <v>1</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="78">
         <v>0.65</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="78">
         <v>0.78461930226636101</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="90">
+      <c r="F13" s="26"/>
+      <c r="G13" s="78">
         <v>0.46507316885564198</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="78">
         <v>0.45999999999999902</v>
       </c>
-      <c r="I13" s="90">
+      <c r="I13" s="78">
         <v>0.46099491000228299</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="90">
+      <c r="J13" s="26"/>
+      <c r="K13" s="78">
         <v>0.51066491592807295</v>
       </c>
-      <c r="L13" s="90">
+      <c r="L13" s="78">
         <v>0.98</v>
       </c>
-      <c r="M13" s="90">
+      <c r="M13" s="78">
         <v>0.67134229495421704</v>
       </c>
-      <c r="O13" s="90">
+      <c r="O13" s="78">
         <v>0.37886002886002801</v>
       </c>
-      <c r="P13" s="90">
+      <c r="P13" s="78">
         <v>0.13999999999999899</v>
       </c>
-      <c r="Q13" s="90">
+      <c r="Q13" s="78">
         <v>0.19753841717134199</v>
       </c>
-      <c r="R13" s="89"/>
+      <c r="R13" s="77"/>
     </row>
     <row r="14" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="90">
+        <v>182</v>
+      </c>
+      <c r="C14" s="78">
         <v>0.97770897832817305</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="78">
         <v>0.84</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="78">
         <v>0.90227439701123902</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="90">
+      <c r="F14" s="26"/>
+      <c r="G14" s="78">
         <v>0.49346220701719401</v>
       </c>
-      <c r="H14" s="90">
+      <c r="H14" s="78">
         <v>0.53</v>
       </c>
-      <c r="I14" s="90">
+      <c r="I14" s="78">
         <v>0.50827171841253505</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="90">
+      <c r="J14" s="26"/>
+      <c r="K14" s="78">
         <v>0.95128205128205101</v>
       </c>
-      <c r="L14" s="90">
+      <c r="L14" s="78">
         <v>0.57999999999999996</v>
       </c>
-      <c r="M14" s="90">
+      <c r="M14" s="78">
         <v>0.72045454545454501</v>
       </c>
-      <c r="O14" s="90">
+      <c r="O14" s="78">
         <v>0.49988095238095198</v>
       </c>
-      <c r="P14" s="90">
+      <c r="P14" s="78">
         <v>0.38</v>
       </c>
-      <c r="Q14" s="90">
+      <c r="Q14" s="78">
         <v>0.43154061624649798</v>
       </c>
-      <c r="R14" s="89"/>
+      <c r="R14" s="77"/>
     </row>
     <row r="15" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="91" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="92">
+      <c r="B15" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="80">
         <v>0.71548717948717899</v>
       </c>
-      <c r="D15" s="92">
+      <c r="D15" s="80">
         <v>0.88</v>
       </c>
-      <c r="E15" s="92">
+      <c r="E15" s="80">
         <v>0.78905577514273095</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="92">
+      <c r="F15" s="26"/>
+      <c r="G15" s="80">
         <v>0.50476315789473603</v>
       </c>
-      <c r="H15" s="92">
+      <c r="H15" s="80">
         <v>0.46999999999999897</v>
       </c>
-      <c r="I15" s="92">
+      <c r="I15" s="80">
         <v>0.48222993380888102</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="92">
+      <c r="J15" s="26"/>
+      <c r="K15" s="80">
         <v>0.50526315789473597</v>
       </c>
-      <c r="L15" s="92">
+      <c r="L15" s="80">
         <v>0.98</v>
       </c>
-      <c r="M15" s="92">
+      <c r="M15" s="80">
         <v>0.66670563023572904</v>
       </c>
-      <c r="O15" s="92">
+      <c r="O15" s="80">
         <v>0.36904761904761901</v>
       </c>
-      <c r="P15" s="92">
+      <c r="P15" s="80">
         <v>0.11</v>
       </c>
-      <c r="Q15" s="92">
+      <c r="Q15" s="80">
         <v>0.16880341880341801</v>
       </c>
-      <c r="R15" s="89"/>
+      <c r="R15" s="77"/>
     </row>
     <row r="16" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="90">
+        <v>184</v>
+      </c>
+      <c r="C16" s="78">
         <v>0.79847232816340297</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="78">
         <v>0.91999999999999904</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="78">
         <v>0.85218273397392597</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="90">
+      <c r="F16" s="26"/>
+      <c r="G16" s="78">
         <v>0.51369169960474304</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="78">
         <v>0.59</v>
       </c>
-      <c r="I16" s="90">
+      <c r="I16" s="78">
         <v>0.54894056847545203</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="90">
+      <c r="J16" s="26"/>
+      <c r="K16" s="78">
         <v>0.58419117647058805</v>
       </c>
-      <c r="L16" s="90">
+      <c r="L16" s="78">
         <v>0.97</v>
       </c>
-      <c r="M16" s="90">
+      <c r="M16" s="78">
         <v>0.72905982905982902</v>
       </c>
-      <c r="O16" s="90">
+      <c r="O16" s="78">
         <v>0.48619047619047601</v>
       </c>
-      <c r="P16" s="90">
+      <c r="P16" s="78">
         <v>0.24</v>
       </c>
-      <c r="Q16" s="90">
+      <c r="Q16" s="78">
         <v>0.31270697167755901</v>
       </c>
-      <c r="R16" s="89"/>
+      <c r="R16" s="77"/>
     </row>
     <row r="17" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="90">
+        <v>185</v>
+      </c>
+      <c r="C17" s="78">
         <v>0.77421126345274904</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="78">
         <v>0.69</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="78">
         <v>0.72750762019054704</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="90">
+      <c r="F17" s="26"/>
+      <c r="G17" s="78">
         <v>0.47610413994853301</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="78">
         <v>0.53</v>
       </c>
-      <c r="I17" s="90">
+      <c r="I17" s="78">
         <v>0.50034989548664299</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="90">
+      <c r="J17" s="26"/>
+      <c r="K17" s="78">
         <v>0.50555555555555498</v>
       </c>
-      <c r="L17" s="90">
+      <c r="L17" s="78">
         <v>0.97</v>
       </c>
-      <c r="M17" s="90">
+      <c r="M17" s="78">
         <v>0.66448888146725604</v>
       </c>
-      <c r="O17" s="90">
+      <c r="O17" s="78">
         <v>0.49499750249750202</v>
       </c>
-      <c r="P17" s="90">
+      <c r="P17" s="78">
         <v>0.33999999999999903</v>
       </c>
-      <c r="Q17" s="90">
+      <c r="Q17" s="78">
         <v>0.40142750355273998</v>
       </c>
-      <c r="R17" s="89"/>
+      <c r="R17" s="77"/>
     </row>
     <row r="18" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="90">
+        <v>186</v>
+      </c>
+      <c r="C18" s="78">
         <v>1</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D18" s="78">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="78">
         <v>0.72526881720430103</v>
       </c>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90">
+      <c r="F18" s="78"/>
+      <c r="G18" s="78">
         <v>0.49119480519480502</v>
       </c>
-      <c r="H18" s="90">
+      <c r="H18" s="78">
         <v>0.6</v>
       </c>
-      <c r="I18" s="90">
+      <c r="I18" s="78">
         <v>0.53583627345707396</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="90">
+      <c r="J18" s="26"/>
+      <c r="K18" s="78">
         <v>0.49216909216909199</v>
       </c>
-      <c r="L18" s="90">
+      <c r="L18" s="78">
         <v>0.96</v>
       </c>
-      <c r="M18" s="90">
+      <c r="M18" s="78">
         <v>0.65060957478441805</v>
       </c>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90">
+      <c r="N18" s="78"/>
+      <c r="O18" s="78">
         <v>0.44648033126293901</v>
       </c>
-      <c r="P18" s="90">
+      <c r="P18" s="78">
         <v>0.48</v>
       </c>
-      <c r="Q18" s="90">
+      <c r="Q18" s="78">
         <v>0.46024952547924702</v>
       </c>
-      <c r="R18" s="89"/>
+      <c r="R18" s="77"/>
     </row>
     <row r="21" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="89">
+      <c r="C22" s="77">
         <f>AVERAGE(C4:C6)</f>
         <v>0.94454965917208467</v>
       </c>
-      <c r="D22" s="89">
+      <c r="D22" s="77">
         <f>AVERAGE(D4:D6)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="E22" s="89">
+      <c r="E22" s="77">
         <f>AVERAGE(E4:E6)</f>
         <v>0.89491520766354837</v>
       </c>
@@ -13497,15 +14000,15 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="89">
+      <c r="C23" s="77">
         <f>AVERAGE(G4:G6)</f>
         <v>0.32830719332267305</v>
       </c>
-      <c r="D23" s="89">
+      <c r="D23" s="77">
         <f>AVERAGE(H4:H6)</f>
         <v>0.32333333333333331</v>
       </c>
-      <c r="E23" s="89">
+      <c r="E23" s="77">
         <f>AVERAGE(I4:I6)</f>
         <v>0.32367041753362297</v>
       </c>
@@ -13514,15 +14017,15 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="89">
+      <c r="C24" s="77">
         <f>AVERAGE(K4:K6)</f>
         <v>0.3379879879879879</v>
       </c>
-      <c r="D24" s="89">
+      <c r="D24" s="77">
         <f>AVERAGE(L4:L6)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E24" s="89">
+      <c r="E24" s="77">
         <f>AVERAGE(M4:M6)</f>
         <v>0.24241453144546188</v>
       </c>
@@ -13531,46 +14034,46 @@
       <c r="B25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="89">
+      <c r="C25" s="77">
         <f>AVERAGE(O4:O6)</f>
         <v>0.46921800421800364</v>
       </c>
-      <c r="D25" s="89">
+      <c r="D25" s="77">
         <f>AVERAGE(P4:P6)</f>
         <v>0.163333333333333</v>
       </c>
-      <c r="E25" s="89">
+      <c r="E25" s="77">
         <f>AVERAGE(Q4:Q6)</f>
         <v>0.22788502468652663</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="89">
+      <c r="C28" s="77">
         <f>AVERAGE(C7:C15)</f>
         <v>0.83346559765656814</v>
       </c>
-      <c r="D28" s="89">
+      <c r="D28" s="77">
         <f>AVERAGE(D7:D15)</f>
         <v>0.86555555555555552</v>
       </c>
-      <c r="E28" s="89">
+      <c r="E28" s="77">
         <f>AVERAGE(E7:E15)</f>
         <v>0.83829625874393032</v>
       </c>
@@ -13579,15 +14082,15 @@
       <c r="B29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="89">
+      <c r="C29" s="77">
         <f>AVERAGE(G7:G15)</f>
         <v>0.43065120815430386</v>
       </c>
-      <c r="D29" s="89">
+      <c r="D29" s="77">
         <f>AVERAGE(H7:H15)</f>
         <v>0.36666666666666636</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E29" s="77">
         <f>AVERAGE(I7:I15)</f>
         <v>0.37236143413799683</v>
       </c>
@@ -13596,15 +14099,15 @@
       <c r="B30" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="89">
+      <c r="C30" s="77">
         <f>AVERAGE(K7:K15)</f>
         <v>0.54944456084806914</v>
       </c>
-      <c r="D30" s="89">
+      <c r="D30" s="77">
         <f>AVERAGE(L7:L15)</f>
         <v>0.69111111111111123</v>
       </c>
-      <c r="E30" s="89">
+      <c r="E30" s="77">
         <f>AVERAGE(M7:M15)</f>
         <v>0.53856201574853113</v>
       </c>
@@ -13613,46 +14116,46 @@
       <c r="B31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="89">
+      <c r="C31" s="77">
         <f>AVERAGE(O7:O15)</f>
         <v>0.46899975955703471</v>
       </c>
-      <c r="D31" s="89">
+      <c r="D31" s="77">
         <f>AVERAGE(P7:P15)</f>
         <v>0.24777777777777754</v>
       </c>
-      <c r="E31" s="89">
+      <c r="E31" s="77">
         <f>AVERAGE(Q7:Q15)</f>
         <v>0.31026329354478949</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="89">
+      <c r="C34" s="77">
         <f>AVERAGE(C16:C18)</f>
         <v>0.85756119720538404</v>
       </c>
-      <c r="D34" s="89">
+      <c r="D34" s="77">
         <f>AVERAGE(D16:D18)</f>
         <v>0.72666666666666624</v>
       </c>
-      <c r="E34" s="89">
+      <c r="E34" s="77">
         <f>AVERAGE(E16:E18)</f>
         <v>0.76831972378959135</v>
       </c>
@@ -13661,15 +14164,15 @@
       <c r="B35" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="89">
+      <c r="C35" s="77">
         <f>AVERAGE(G16:G18)</f>
         <v>0.49366354824936032</v>
       </c>
-      <c r="D35" s="89">
+      <c r="D35" s="77">
         <f>AVERAGE(H16:H18)</f>
         <v>0.57333333333333336</v>
       </c>
-      <c r="E35" s="89">
+      <c r="E35" s="77">
         <f>AVERAGE(I16:I18)</f>
         <v>0.528375579139723</v>
       </c>
@@ -13678,15 +14181,15 @@
       <c r="B36" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="89">
+      <c r="C36" s="77">
         <f>AVERAGE(K16:K18)</f>
         <v>0.52730527473174504</v>
       </c>
-      <c r="D36" s="89">
+      <c r="D36" s="77">
         <f>AVERAGE(L16:L18)</f>
         <v>0.96666666666666667</v>
       </c>
-      <c r="E36" s="89">
+      <c r="E36" s="77">
         <f>AVERAGE(M16:M18)</f>
         <v>0.68138609510383441</v>
       </c>
@@ -13695,15 +14198,15 @@
       <c r="B37" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="89">
+      <c r="C37" s="77">
         <f>AVERAGE(O16:O18)</f>
         <v>0.4758894366503057</v>
       </c>
-      <c r="D37" s="89">
+      <c r="D37" s="77">
         <f>AVERAGE(P16:P18)</f>
         <v>0.353333333333333</v>
       </c>
-      <c r="E37" s="89">
+      <c r="E37" s="77">
         <f>AVERAGE(Q16:Q18)</f>
         <v>0.39146133356984869</v>
       </c>

--- a/drawings_tables/LaTex_Table_Formatter_V4_21-Jun-2023.xlsx
+++ b/drawings_tables/LaTex_Table_Formatter_V4_21-Jun-2023.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rajesh\HEI\P-4 Research Phase\Article_Empirical_Study\drawings_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745D3976-13D1-4F00-AA52-099591C91F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2E80AF-8965-4761-B3CA-FBF42E50DFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LATEX" sheetId="27" r:id="rId1"/>
     <sheet name="Large_table" sheetId="22" r:id="rId2"/>
-    <sheet name="OveraL_Avg" sheetId="23" r:id="rId3"/>
+    <sheet name="Overall_Avg" sheetId="23" r:id="rId3"/>
     <sheet name="Sim_Avg" sheetId="24" r:id="rId4"/>
     <sheet name="PHM_SS_Avg" sheetId="25" r:id="rId5"/>
     <sheet name="PHM_MS_Avg" sheetId="26" r:id="rId6"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="199">
   <si>
     <t>environment_info</t>
   </si>
@@ -669,6 +669,12 @@
   </si>
   <si>
     <t>Overall average (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF over Best </t>
+  </si>
+  <si>
+    <t>average of SB-3</t>
   </si>
 </sst>
 </file>
@@ -1779,8 +1785,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1809,14 +1817,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2690,7 +2696,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="82" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2797,16 +2803,16 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="94" t="s">
+      <c r="K22" s="82" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
-        <f>OveraL_Avg!P4</f>
+        <f>Overall_Avg!P4</f>
         <v xml:space="preserve"> &amp;Precision &amp; &amp;Recall &amp; &amp; &amp;F1-score&amp; &amp;F-beta score (0.5) &amp; \\</v>
       </c>
       <c r="K23" t="str">
@@ -2816,7 +2822,7 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
-        <f>OveraL_Avg!P5</f>
+        <f>Overall_Avg!P5</f>
         <v xml:space="preserve"> &amp;Mean &amp;SD &amp;Mean &amp;SD &amp; &amp;Mean&amp; &amp;Mean &amp; \\</v>
       </c>
       <c r="K24" t="str">
@@ -2826,7 +2832,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
-        <f>OveraL_Avg!P6</f>
+        <f>Overall_Avg!P6</f>
         <v>A2C &amp; 0.448 &amp; 0.074 &amp; &amp;0.478 &amp; 0.084 &amp; &amp; 0.443 &amp; 0.071 &amp; &amp;0.439 &amp;0.069 \\</v>
       </c>
       <c r="K25" t="str">
@@ -2836,7 +2842,7 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
-        <f>OveraL_Avg!P7</f>
+        <f>Overall_Avg!P7</f>
         <v>DQN &amp; 0.415 &amp; 0.196 &amp; &amp;0.462 &amp; 0.033 &amp; &amp; 0.343 &amp; 0.038 &amp; &amp;0.325 &amp;0.063 \\</v>
       </c>
       <c r="K26" t="str">
@@ -2846,7 +2852,7 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
-        <f>OveraL_Avg!P8</f>
+        <f>Overall_Avg!P8</f>
         <v>PPO &amp; 0.447 &amp; 0.147 &amp; &amp;0.306 &amp; 0.090 &amp; &amp; 0.334 &amp; 0.093 &amp; &amp;0.375 &amp;0.107 \\</v>
       </c>
       <c r="K27" t="str">
@@ -2856,7 +2862,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
-        <f>OveraL_Avg!P9</f>
+        <f>Overall_Avg!P9</f>
         <v>REINFORCE &amp; 0.866 &amp; 0.042 &amp; &amp;0.847 &amp; 0.054 &amp; &amp; 0.842 &amp; 0.043 &amp; &amp;0.852 &amp;0.042 \\</v>
       </c>
       <c r="K28" t="str">
@@ -2865,10 +2871,10 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="K31" s="94" t="s">
+      <c r="K31" s="82" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2933,7 +2939,7 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="82" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3049,9 +3055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AC580-EAD5-4BF8-B463-A4EAA2939E32}">
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W28" sqref="W28:W39"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,7 +3065,7 @@
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="3.28515625" customWidth="1"/>
     <col min="13" max="16" width="8.5703125" customWidth="1"/>
@@ -6218,12 +6224,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBD3D79-ECC8-4FD3-8D4C-6A188495D92F}">
   <dimension ref="B1:V33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="4.5703125" customWidth="1"/>
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.7109375" customWidth="1"/>
@@ -6634,6 +6641,41 @@
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="1">
+        <f>C9-MAX(C6:C8)</f>
+        <v>0.41760236928000005</v>
+      </c>
+      <c r="D12" s="1">
+        <f>D9-MIN(D6:D8)</f>
+        <v>-3.2501488173333294E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <f>F9-MAX(F6:F8)</f>
+        <v>0.36879999999999996</v>
+      </c>
+      <c r="G12" s="1">
+        <f>G9-MIN(G6:G8)</f>
+        <v>2.0454272799999999E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <f>I9-MAX(I6:I8)</f>
+        <v>0.39961317581333294</v>
+      </c>
+      <c r="J12" s="1">
+        <f>J9-MIN(J6:J8)</f>
+        <v>4.7033017999999968E-3</v>
+      </c>
+      <c r="L12" s="1">
+        <f>L9-MAX(L6:L8)</f>
+        <v>0.41315863413333404</v>
+      </c>
+      <c r="M12" s="1">
+        <f>M9-MIN(M6:M8)</f>
+        <v>-2.1087999480000008E-2</v>
+      </c>
       <c r="S12">
         <v>13</v>
       </c>
@@ -6648,6 +6690,41 @@
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C6:C8)</f>
+        <v>0.436714116791111</v>
+      </c>
+      <c r="D13" s="1">
+        <f>AVERAGE(D6:D8)</f>
+        <v>0.13903644431555542</v>
+      </c>
+      <c r="F13" s="1">
+        <f>AVERAGE(F6:F8)</f>
+        <v>0.41566666666666635</v>
+      </c>
+      <c r="G13" s="1">
+        <f>AVERAGE(G6:G8)</f>
+        <v>6.9345032035555504E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <f>AVERAGE(I6:I8)</f>
+        <v>0.37347619979555535</v>
+      </c>
+      <c r="J13" s="1">
+        <f>AVERAGE(J6:J8)</f>
+        <v>6.7499585502222195E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <f>AVERAGE(L6:L8)</f>
+        <v>0.37970622286222167</v>
+      </c>
+      <c r="M13" s="1">
+        <f>AVERAGE(M6:M8)</f>
+        <v>7.9484141844444398E-2</v>
+      </c>
       <c r="S13">
         <v>14</v>
       </c>
@@ -9158,7 +9235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FFB8C4-173F-40A3-B155-74CEDC458F1B}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -9194,16 +9271,16 @@
       <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="93">
+      <c r="B2" s="81">
         <v>214.23125028610201</v>
       </c>
-      <c r="C2" s="93">
+      <c r="C2" s="81">
         <v>41.192878961563103</v>
       </c>
-      <c r="D2" s="93">
+      <c r="D2" s="81">
         <v>4.0305840969085596</v>
       </c>
-      <c r="E2" s="93">
+      <c r="E2" s="81">
         <v>41.127108573913503</v>
       </c>
       <c r="F2" s="12" t="str">
@@ -9215,16 +9292,16 @@
       <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="93">
+      <c r="B3" s="81">
         <v>199.893449068069</v>
       </c>
-      <c r="C3" s="93">
+      <c r="C3" s="81">
         <v>41.516161203384399</v>
       </c>
-      <c r="D3" s="93">
+      <c r="D3" s="81">
         <v>3.5455367565154998</v>
       </c>
-      <c r="E3" s="93">
+      <c r="E3" s="81">
         <v>40.6614153385162</v>
       </c>
       <c r="F3" s="12" t="str">
@@ -9236,16 +9313,16 @@
       <c r="A4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="93">
+      <c r="B4" s="81">
         <v>134.15730237960801</v>
       </c>
-      <c r="C4" s="93">
+      <c r="C4" s="81">
         <v>17.8784244060516</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D4" s="81">
         <v>1.5289890766143699</v>
       </c>
-      <c r="E4" s="93">
+      <c r="E4" s="81">
         <v>20.900353193282999</v>
       </c>
       <c r="F4" s="12" t="str">
@@ -9257,16 +9334,16 @@
       <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="93">
+      <c r="B5" s="81">
         <v>330.54439568519501</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="81">
         <v>18.846081018447801</v>
       </c>
-      <c r="D5" s="93">
+      <c r="D5" s="81">
         <v>2.08377933502197</v>
       </c>
-      <c r="E5" s="93">
+      <c r="E5" s="81">
         <v>32.652981996536198</v>
       </c>
       <c r="F5" s="12" t="str">
@@ -9278,16 +9355,16 @@
       <c r="A6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="81">
         <v>426.78993558883599</v>
       </c>
-      <c r="C6" s="93">
+      <c r="C6" s="81">
         <v>30.655102491378699</v>
       </c>
-      <c r="D6" s="93">
+      <c r="D6" s="81">
         <v>3.6874377727508501</v>
       </c>
-      <c r="E6" s="93">
+      <c r="E6" s="81">
         <v>38.5864129066467</v>
       </c>
       <c r="F6" s="12" t="str">
@@ -9299,16 +9376,16 @@
       <c r="A7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="93">
+      <c r="B7" s="81">
         <v>333.134527683258</v>
       </c>
-      <c r="C7" s="93">
+      <c r="C7" s="81">
         <v>17.582239151000898</v>
       </c>
-      <c r="D7" s="93">
+      <c r="D7" s="81">
         <v>1.80086994171142</v>
       </c>
-      <c r="E7" s="93">
+      <c r="E7" s="81">
         <v>19.155593395233101</v>
       </c>
       <c r="F7" s="12" t="str">
@@ -9320,16 +9397,16 @@
       <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="93">
+      <c r="B8" s="81">
         <v>299.305101156234</v>
       </c>
-      <c r="C8" s="93">
+      <c r="C8" s="81">
         <v>19.561541557312001</v>
       </c>
-      <c r="D8" s="93">
+      <c r="D8" s="81">
         <v>1.8606305122375399</v>
       </c>
-      <c r="E8" s="93">
+      <c r="E8" s="81">
         <v>19.635247707366901</v>
       </c>
       <c r="F8" s="12" t="str">
@@ -9341,16 +9418,16 @@
       <c r="A9" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="93">
+      <c r="B9" s="81">
         <v>264.90415620803799</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="81">
         <v>18.268144130706698</v>
       </c>
-      <c r="D9" s="93">
+      <c r="D9" s="81">
         <v>1.99961829185485</v>
       </c>
-      <c r="E9" s="93">
+      <c r="E9" s="81">
         <v>19.6937849521636</v>
       </c>
       <c r="F9" s="12" t="str">
@@ -9362,16 +9439,16 @@
       <c r="A10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="93">
+      <c r="B10" s="81">
         <v>256.44303488731299</v>
       </c>
-      <c r="C10" s="93">
+      <c r="C10" s="81">
         <v>17.6516013145446</v>
       </c>
-      <c r="D10" s="93">
+      <c r="D10" s="81">
         <v>1.57854628562927</v>
       </c>
-      <c r="E10" s="93">
+      <c r="E10" s="81">
         <v>19.106502056121801</v>
       </c>
       <c r="F10" s="12" t="str">
@@ -9383,16 +9460,16 @@
       <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="93">
+      <c r="B11" s="81">
         <v>339.65067934989901</v>
       </c>
-      <c r="C11" s="93">
+      <c r="C11" s="81">
         <v>17.640863895416199</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="81">
         <v>2.2645769119262602</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="81">
         <v>19.495165824890101</v>
       </c>
       <c r="F11" s="12" t="str">
@@ -9404,16 +9481,16 @@
       <c r="A12" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="93">
+      <c r="B12" s="81">
         <v>266.97978091239901</v>
       </c>
-      <c r="C12" s="93">
+      <c r="C12" s="81">
         <v>19.328150033950799</v>
       </c>
-      <c r="D12" s="93">
+      <c r="D12" s="81">
         <v>1.84245777130126</v>
       </c>
-      <c r="E12" s="93">
+      <c r="E12" s="81">
         <v>19.189173936843801</v>
       </c>
       <c r="F12" s="12" t="str">
@@ -9425,16 +9502,16 @@
       <c r="A13" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="93">
+      <c r="B13" s="81">
         <v>308.20302629470802</v>
       </c>
-      <c r="C13" s="93">
+      <c r="C13" s="81">
         <v>34.212615728378204</v>
       </c>
-      <c r="D13" s="93">
+      <c r="D13" s="81">
         <v>4.1830084323883003</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="81">
         <v>30.942311763763399</v>
       </c>
       <c r="F13" s="12" t="str">
@@ -9446,16 +9523,16 @@
       <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="93">
+      <c r="B14" s="81">
         <v>655.20664548873901</v>
       </c>
-      <c r="C14" s="93">
+      <c r="C14" s="81">
         <v>38.551126956939697</v>
       </c>
-      <c r="D14" s="93">
+      <c r="D14" s="81">
         <v>4.9570662975311199</v>
       </c>
-      <c r="E14" s="93">
+      <c r="E14" s="81">
         <v>42.206415891647303</v>
       </c>
       <c r="F14" s="12" t="str">
@@ -9467,16 +9544,16 @@
       <c r="A15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="93">
+      <c r="B15" s="81">
         <v>615.58175253868103</v>
       </c>
-      <c r="C15" s="93">
+      <c r="C15" s="81">
         <v>33.854306697845402</v>
       </c>
-      <c r="D15" s="93">
+      <c r="D15" s="81">
         <v>7.3636748790740896</v>
       </c>
-      <c r="E15" s="93">
+      <c r="E15" s="81">
         <v>43.493301391601499</v>
       </c>
       <c r="F15" s="12" t="str">
@@ -9488,16 +9565,16 @@
       <c r="A16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="93">
+      <c r="B16" s="81">
         <v>625.372385501861</v>
       </c>
-      <c r="C16" s="93">
+      <c r="C16" s="81">
         <v>39.296446323394697</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D16" s="81">
         <v>5.8528637886047301</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="81">
         <v>41.675241708755401</v>
       </c>
       <c r="F16" s="12" t="str">
@@ -9509,19 +9586,19 @@
       <c r="A17" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="93">
+      <c r="B17" s="81">
         <f>AVERAGE(B2:B16)</f>
         <v>351.3598282019293</v>
       </c>
-      <c r="C17" s="93">
+      <c r="C17" s="81">
         <f>AVERAGE(C2:C16)</f>
         <v>27.069045591354321</v>
       </c>
-      <c r="D17" s="93">
+      <c r="D17" s="81">
         <f>AVERAGE(D2:D16)</f>
         <v>3.2386426766713394</v>
       </c>
-      <c r="E17" s="93">
+      <c r="E17" s="81">
         <f>AVERAGE(E2:E16)</f>
         <v>29.90140070915216</v>
       </c>
@@ -9590,36 +9667,36 @@
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="84"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="86"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
-      <c r="W2" s="85" t="s">
+      <c r="W2" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="87"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="89"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="D3" s="20"/>
@@ -9641,31 +9718,31 @@
       <c r="T3" s="22"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
-      <c r="W3" s="88" t="s">
+      <c r="W3" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="90"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="92"/>
       <c r="AB3" s="23"/>
       <c r="AC3" s="23"/>
-      <c r="AD3" s="88" t="s">
+      <c r="AD3" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="90"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="92"/>
       <c r="AI3" s="23"/>
       <c r="AJ3" s="23"/>
-      <c r="AK3" s="88" t="s">
+      <c r="AK3" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="89"/>
-      <c r="AN3" s="89"/>
-      <c r="AO3" s="90"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="92"/>
     </row>
     <row r="4" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -11904,7 +11981,7 @@
       <c r="AQ25" s="70"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="D26" s="91" t="s">
+      <c r="D26" s="83" t="s">
         <v>162</v>
       </c>
       <c r="N26" t="s">
@@ -12012,7 +12089,7 @@
       <c r="AQ26" s="70"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="D27" s="91"/>
+      <c r="D27" s="83"/>
       <c r="N27" t="s">
         <v>164</v>
       </c>
@@ -12118,7 +12195,7 @@
       <c r="AQ27" s="70"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="D28" s="91"/>
+      <c r="D28" s="83"/>
       <c r="N28" s="4" t="s">
         <v>165</v>
       </c>
@@ -12236,33 +12313,33 @@
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="81" t="s">
+      <c r="P31" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="81" t="s">
+      <c r="Q31" s="93"/>
+      <c r="R31" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="S31" s="81"/>
-      <c r="T31" s="81" t="s">
+      <c r="S31" s="93"/>
+      <c r="T31" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="U31" s="81"/>
+      <c r="U31" s="93"/>
       <c r="V31" s="71"/>
       <c r="X31" s="4"/>
-      <c r="Y31" s="81" t="s">
+      <c r="Y31" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="Z31" s="81"/>
-      <c r="AA31" s="81" t="s">
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="AB31" s="81"/>
+      <c r="AB31" s="93"/>
       <c r="AC31" s="71"/>
-      <c r="AD31" s="81" t="s">
+      <c r="AD31" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="AE31" s="81"/>
+      <c r="AE31" s="93"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="P32" s="5" t="s">
@@ -12601,33 +12678,33 @@
     <row r="40" spans="14:31" x14ac:dyDescent="0.25">
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="81" t="s">
+      <c r="P40" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81" t="s">
+      <c r="Q40" s="93"/>
+      <c r="R40" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="S40" s="81"/>
-      <c r="T40" s="81" t="s">
+      <c r="S40" s="93"/>
+      <c r="T40" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="U40" s="81"/>
+      <c r="U40" s="93"/>
       <c r="V40" s="71"/>
       <c r="X40" s="4"/>
-      <c r="Y40" s="81" t="s">
+      <c r="Y40" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="Z40" s="81"/>
-      <c r="AA40" s="81" t="s">
+      <c r="Z40" s="93"/>
+      <c r="AA40" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="AB40" s="81"/>
+      <c r="AB40" s="93"/>
       <c r="AC40" s="71"/>
-      <c r="AD40" s="81" t="s">
+      <c r="AD40" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="AE40" s="81"/>
+      <c r="AE40" s="93"/>
     </row>
     <row r="41" spans="14:31" x14ac:dyDescent="0.25">
       <c r="P41" s="5" t="s">
@@ -12998,12 +13075,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="W2:AO2"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AK3:AO3"/>
     <mergeCell ref="AD40:AE40"/>
     <mergeCell ref="P31:Q31"/>
     <mergeCell ref="R31:S31"/>
@@ -13016,6 +13087,12 @@
     <mergeCell ref="T40:U40"/>
     <mergeCell ref="Y40:Z40"/>
     <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="W2:AO2"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AK3:AO3"/>
   </mergeCells>
   <conditionalFormatting sqref="Y20">
     <cfRule type="cellIs" dxfId="52" priority="52" operator="greaterThan">
@@ -13237,28 +13314,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
       <c r="F2" s="26"/>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
       <c r="J2" s="26"/>
-      <c r="K2" s="92" t="s">
+      <c r="K2" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="O2" s="92" t="s">
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="O2" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="2:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="75" t="s">
